--- a/Results.xlsx
+++ b/Results.xlsx
@@ -14,6 +14,7 @@
   <sheets>
     <sheet name="Go_Back_N" sheetId="2" r:id="rId1"/>
     <sheet name="Selective Repeat" sheetId="4" r:id="rId2"/>
+    <sheet name="Data" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="17">
   <si>
     <t>p</t>
   </si>
@@ -73,6 +74,9 @@
   </si>
   <si>
     <t>Average</t>
+  </si>
+  <si>
+    <t>Results</t>
   </si>
 </sst>
 </file>
@@ -246,88 +250,6 @@
   <dxfs count="15">
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="thin">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color auto="1"/>
         </left>
@@ -433,17 +355,26 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <border outline="0">
         <top style="thin">
           <color auto="1"/>
         </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -462,13 +393,86 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7">
     <tableStyle name="MyStyle" pivot="0" count="4">
-      <tableStyleElement type="wholeTable" dxfId="4"/>
-      <tableStyleElement type="headerRow" dxfId="3"/>
-      <tableStyleElement type="firstColumn" dxfId="2"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="1"/>
+      <tableStyleElement type="wholeTable" dxfId="14"/>
+      <tableStyleElement type="headerRow" dxfId="13"/>
+      <tableStyleElement type="firstColumn" dxfId="12"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="11"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -558,9 +562,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>Round1</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -622,37 +623,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>28606.0</c:v>
+                  <c:v>30067.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25459.0</c:v>
+                  <c:v>20366.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26538.0</c:v>
+                  <c:v>14416.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23998.0</c:v>
+                  <c:v>12820.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19395.0</c:v>
+                  <c:v>11880.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15730.0</c:v>
+                  <c:v>10574.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11667.0</c:v>
+                  <c:v>10253.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5971.0</c:v>
+                  <c:v>11264.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6500.0</c:v>
+                  <c:v>13520.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7086.0</c:v>
+                  <c:v>15865.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6386.0</c:v>
+                  <c:v>16650.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -662,9 +663,6 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:v>Round2</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -726,37 +724,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>29400.0</c:v>
+                  <c:v>31044.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24243.0</c:v>
+                  <c:v>20302.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27619.0</c:v>
+                  <c:v>19592.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25413.0</c:v>
+                  <c:v>17602.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19413.0</c:v>
+                  <c:v>15690.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15783.0</c:v>
+                  <c:v>12847.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10444.0</c:v>
+                  <c:v>11600.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6833.0</c:v>
+                  <c:v>13457.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7070.0</c:v>
+                  <c:v>13533.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7880.0</c:v>
+                  <c:v>15082.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5800.0</c:v>
+                  <c:v>17609.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -766,9 +764,6 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
-          <c:tx>
-            <c:v>Round3</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -830,37 +825,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>27127.0</c:v>
+                  <c:v>33498.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>32337.0</c:v>
+                  <c:v>20358.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24792.0</c:v>
+                  <c:v>17553.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20543.0</c:v>
+                  <c:v>12036.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21376.0</c:v>
+                  <c:v>11867.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14753.0</c:v>
+                  <c:v>9002.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10640.0</c:v>
+                  <c:v>11574.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6817.0</c:v>
+                  <c:v>14836.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7028.0</c:v>
+                  <c:v>14511.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7754.0</c:v>
+                  <c:v>17944.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6488.0</c:v>
+                  <c:v>23617.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -870,9 +865,6 @@
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
-          <c:tx>
-            <c:v>Round4</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -934,37 +926,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>28350.0</c:v>
+                  <c:v>29133.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27222.0</c:v>
+                  <c:v>21566.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25006.0</c:v>
+                  <c:v>19850.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18469.0</c:v>
+                  <c:v>12052.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19539.0</c:v>
+                  <c:v>11280.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15773.0</c:v>
+                  <c:v>10958.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9628.0</c:v>
+                  <c:v>10326.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7966.0</c:v>
+                  <c:v>14618.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7489.0</c:v>
+                  <c:v>15121.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6699.0</c:v>
+                  <c:v>15123.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6290.0</c:v>
+                  <c:v>19179.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -974,9 +966,6 @@
         <c:ser>
           <c:idx val="4"/>
           <c:order val="4"/>
-          <c:tx>
-            <c:v>Round5</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -1038,37 +1027,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>26488.0</c:v>
+                  <c:v>29685.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28691.0</c:v>
+                  <c:v>19585.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25153.0</c:v>
+                  <c:v>14709.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23546.0</c:v>
+                  <c:v>12692.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20135.0</c:v>
+                  <c:v>12289.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16507.0</c:v>
+                  <c:v>11532.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9485.0</c:v>
+                  <c:v>10778.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7940.0</c:v>
+                  <c:v>11105.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7301.0</c:v>
+                  <c:v>13478.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6965.0</c:v>
+                  <c:v>14169.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6214.0</c:v>
+                  <c:v>17096.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1078,9 +1067,6 @@
         <c:ser>
           <c:idx val="5"/>
           <c:order val="5"/>
-          <c:tx>
-            <c:v>Average</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -1142,37 +1128,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>27994.2</c:v>
+                  <c:v>30685.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27590.4</c:v>
+                  <c:v>20435.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25821.6</c:v>
+                  <c:v>17224.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22393.8</c:v>
+                  <c:v>13440.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19971.6</c:v>
+                  <c:v>12601.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15709.2</c:v>
+                  <c:v>10982.6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10372.8</c:v>
+                  <c:v>10906.2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7105.4</c:v>
+                  <c:v>13056.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7077.6</c:v>
+                  <c:v>14032.6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7276.8</c:v>
+                  <c:v>15636.6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6235.6</c:v>
+                  <c:v>18830.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1188,11 +1174,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2098501120"/>
-        <c:axId val="-2098498208"/>
+        <c:axId val="-2100635200"/>
+        <c:axId val="-2101274960"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2098501120"/>
+        <c:axId val="-2100635200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1291,7 +1277,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2098498208"/>
+        <c:crossAx val="-2101274960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1299,7 +1285,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2098498208"/>
+        <c:axId val="-2101274960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1411,7 +1397,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2098501120"/>
+        <c:crossAx val="-2100635200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1571,9 +1557,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>Round1</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -1632,34 +1615,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>54770.0</c:v>
+                  <c:v>50519.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25837.0</c:v>
+                  <c:v>24985.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18004.0</c:v>
+                  <c:v>18755.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12372.0</c:v>
+                  <c:v>13730.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9237.0</c:v>
+                  <c:v>10305.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7154.0</c:v>
+                  <c:v>9093.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6931.0</c:v>
+                  <c:v>8055.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7116.0</c:v>
+                  <c:v>6777.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5779.0</c:v>
+                  <c:v>5521.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6079.0</c:v>
+                  <c:v>6177.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1669,9 +1652,6 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:v>Round2</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -1730,34 +1710,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>56400.0</c:v>
+                  <c:v>54965.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27249.0</c:v>
+                  <c:v>24797.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16590.0</c:v>
+                  <c:v>18346.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12953.0</c:v>
+                  <c:v>14715.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9161.0</c:v>
+                  <c:v>13345.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9145.0</c:v>
+                  <c:v>7715.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7669.0</c:v>
+                  <c:v>8297.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7312.0</c:v>
+                  <c:v>6645.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5484.0</c:v>
+                  <c:v>5520.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6018.0</c:v>
+                  <c:v>4923.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1767,9 +1747,6 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
-          <c:tx>
-            <c:v>Round3</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -1828,34 +1805,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>53535.0</c:v>
+                  <c:v>56866.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27607.0</c:v>
+                  <c:v>26082.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17700.0</c:v>
+                  <c:v>18549.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15315.0</c:v>
+                  <c:v>14241.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10438.0</c:v>
+                  <c:v>10616.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8993.0</c:v>
+                  <c:v>8753.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6943.0</c:v>
+                  <c:v>6773.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5870.0</c:v>
+                  <c:v>6060.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7621.0</c:v>
+                  <c:v>6095.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5384.0</c:v>
+                  <c:v>4692.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1865,9 +1842,6 @@
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
-          <c:tx>
-            <c:v>Round4</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -1926,34 +1900,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>51109.0</c:v>
+                  <c:v>55915.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24153.0</c:v>
+                  <c:v>26945.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18694.0</c:v>
+                  <c:v>21207.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12810.0</c:v>
+                  <c:v>17295.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10785.0</c:v>
+                  <c:v>11639.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9396.0</c:v>
+                  <c:v>10090.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8433.0</c:v>
+                  <c:v>8321.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7524.0</c:v>
+                  <c:v>7403.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6784.0</c:v>
+                  <c:v>7125.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5369.0</c:v>
+                  <c:v>4987.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1963,9 +1937,6 @@
         <c:ser>
           <c:idx val="4"/>
           <c:order val="4"/>
-          <c:tx>
-            <c:v>Round5</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -2024,34 +1995,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>54646.0</c:v>
+                  <c:v>51851.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26487.0</c:v>
+                  <c:v>26444.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17276.0</c:v>
+                  <c:v>20474.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12555.0</c:v>
+                  <c:v>14624.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10876.0</c:v>
+                  <c:v>12174.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8403.0</c:v>
+                  <c:v>9496.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7925.0</c:v>
+                  <c:v>6138.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6023.0</c:v>
+                  <c:v>6160.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5845.0</c:v>
+                  <c:v>6075.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5627.0</c:v>
+                  <c:v>5068.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2061,9 +2032,6 @@
         <c:ser>
           <c:idx val="5"/>
           <c:order val="5"/>
-          <c:tx>
-            <c:v>Average</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -2122,34 +2090,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>54092.0</c:v>
+                  <c:v>54023.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26266.6</c:v>
+                  <c:v>25850.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17652.8</c:v>
+                  <c:v>19466.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13201.0</c:v>
+                  <c:v>14921.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10099.4</c:v>
+                  <c:v>11615.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8618.2</c:v>
+                  <c:v>9029.4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7580.2</c:v>
+                  <c:v>7516.8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6769.0</c:v>
+                  <c:v>6609.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6302.6</c:v>
+                  <c:v>6067.2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5695.4</c:v>
+                  <c:v>5169.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2165,11 +2133,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2094207344"/>
-        <c:axId val="-2097066192"/>
+        <c:axId val="-2073271760"/>
+        <c:axId val="-2073277984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2094207344"/>
+        <c:axId val="-2073271760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2268,7 +2236,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2097066192"/>
+        <c:crossAx val="-2073277984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2276,7 +2244,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2097066192"/>
+        <c:axId val="-2073277984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2388,7 +2356,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2094207344"/>
+        <c:crossAx val="-2073271760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2553,9 +2521,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>Round1</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -2614,34 +2579,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>5541.0</c:v>
+                  <c:v>2658.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7563.0</c:v>
+                  <c:v>5740.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9025.0</c:v>
+                  <c:v>7295.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10041.0</c:v>
+                  <c:v>8618.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11032.0</c:v>
+                  <c:v>9658.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10066.0</c:v>
+                  <c:v>14105.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12284.0</c:v>
+                  <c:v>16454.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12565.0</c:v>
+                  <c:v>24115.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12763.0</c:v>
+                  <c:v>25070.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14383.0</c:v>
+                  <c:v>22211.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2651,9 +2616,6 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:v>Round2</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -2712,34 +2674,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4098.0</c:v>
+                  <c:v>3224.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6920.0</c:v>
+                  <c:v>4222.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8046.0</c:v>
+                  <c:v>7122.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9803.0</c:v>
+                  <c:v>9798.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10121.0</c:v>
+                  <c:v>11063.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12197.0</c:v>
+                  <c:v>11905.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14572.0</c:v>
+                  <c:v>15374.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12785.0</c:v>
+                  <c:v>17994.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13733.0</c:v>
+                  <c:v>19603.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14572.0</c:v>
+                  <c:v>22855.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2749,9 +2711,6 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
-          <c:tx>
-            <c:v>Round3</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -2810,34 +2769,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4072.0</c:v>
+                  <c:v>3028.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5503.0</c:v>
+                  <c:v>5033.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8357.0</c:v>
+                  <c:v>6500.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10276.0</c:v>
+                  <c:v>8680.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10521.0</c:v>
+                  <c:v>9626.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12461.0</c:v>
+                  <c:v>12605.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12512.0</c:v>
+                  <c:v>15038.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12432.0</c:v>
+                  <c:v>17028.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15222.0</c:v>
+                  <c:v>21822.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15072.0</c:v>
+                  <c:v>23839.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2847,9 +2806,6 @@
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
-          <c:tx>
-            <c:v>Round4</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -2908,34 +2864,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3918.0</c:v>
+                  <c:v>3182.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6819.0</c:v>
+                  <c:v>5376.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8253.0</c:v>
+                  <c:v>7487.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9326.0</c:v>
+                  <c:v>7222.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11525.0</c:v>
+                  <c:v>12174.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10497.0</c:v>
+                  <c:v>12422.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13575.0</c:v>
+                  <c:v>15344.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12469.0</c:v>
+                  <c:v>18193.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>14768.0</c:v>
+                  <c:v>20785.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14587.0</c:v>
+                  <c:v>23644.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2945,9 +2901,6 @@
         <c:ser>
           <c:idx val="4"/>
           <c:order val="4"/>
-          <c:tx>
-            <c:v>Round5</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -3006,34 +2959,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4307.0</c:v>
+                  <c:v>2763.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6392.0</c:v>
+                  <c:v>4851.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8849.0</c:v>
+                  <c:v>6130.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8743.0</c:v>
+                  <c:v>8856.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10675.0</c:v>
+                  <c:v>11404.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11681.0</c:v>
+                  <c:v>13894.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11076.0</c:v>
+                  <c:v>18142.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12123.0</c:v>
+                  <c:v>18348.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>14759.0</c:v>
+                  <c:v>18685.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15480.0</c:v>
+                  <c:v>23935.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3043,9 +2996,6 @@
         <c:ser>
           <c:idx val="5"/>
           <c:order val="5"/>
-          <c:tx>
-            <c:v>Average</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -3104,34 +3054,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4387.2</c:v>
+                  <c:v>2971.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6639.4</c:v>
+                  <c:v>5044.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8506.0</c:v>
+                  <c:v>6906.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9637.799999999999</c:v>
+                  <c:v>8634.799999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10774.8</c:v>
+                  <c:v>10785.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11380.4</c:v>
+                  <c:v>12986.2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12803.8</c:v>
+                  <c:v>16070.4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12474.8</c:v>
+                  <c:v>19135.6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>14249.0</c:v>
+                  <c:v>21193.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14818.8</c:v>
+                  <c:v>23296.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3147,11 +3097,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2096877760"/>
-        <c:axId val="-2094155152"/>
+        <c:axId val="-2101291440"/>
+        <c:axId val="-2101336096"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2096877760"/>
+        <c:axId val="-2101291440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3250,7 +3200,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2094155152"/>
+        <c:crossAx val="-2101336096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3258,7 +3208,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2094155152"/>
+        <c:axId val="-2101336096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3365,7 +3315,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2096877760"/>
+        <c:crossAx val="-2101291440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3586,37 +3536,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>32628.0</c:v>
+                  <c:v>27164.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24774.0</c:v>
+                  <c:v>19408.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23740.0</c:v>
+                  <c:v>13143.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22110.0</c:v>
+                  <c:v>9070.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18217.0</c:v>
+                  <c:v>5369.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13588.0</c:v>
+                  <c:v>3108.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8252.0</c:v>
+                  <c:v>1635.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4472.0</c:v>
+                  <c:v>913.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3470.0</c:v>
+                  <c:v>834.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3318.0</c:v>
+                  <c:v>1121.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2641.0</c:v>
+                  <c:v>1077.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3687,37 +3637,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>31010.0</c:v>
+                  <c:v>27917.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29151.0</c:v>
+                  <c:v>17874.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24367.0</c:v>
+                  <c:v>12095.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26970.0</c:v>
+                  <c:v>7366.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22075.0</c:v>
+                  <c:v>5247.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13022.0</c:v>
+                  <c:v>2835.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8243.0</c:v>
+                  <c:v>1495.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4849.0</c:v>
+                  <c:v>905.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3396.0</c:v>
+                  <c:v>899.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3025.0</c:v>
+                  <c:v>915.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2898.0</c:v>
+                  <c:v>1033.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3788,37 +3738,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>28128.0</c:v>
+                  <c:v>29601.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26849.0</c:v>
+                  <c:v>19080.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23954.0</c:v>
+                  <c:v>12772.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22748.0</c:v>
+                  <c:v>8075.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20250.0</c:v>
+                  <c:v>5734.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15016.0</c:v>
+                  <c:v>3488.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8304.0</c:v>
+                  <c:v>1492.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4657.0</c:v>
+                  <c:v>1367.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3594.0</c:v>
+                  <c:v>955.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3049.0</c:v>
+                  <c:v>1026.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2720.0</c:v>
+                  <c:v>1042.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3889,37 +3839,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>25131.0</c:v>
+                  <c:v>29017.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24270.0</c:v>
+                  <c:v>18915.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23588.0</c:v>
+                  <c:v>13300.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23339.0</c:v>
+                  <c:v>7623.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17851.0</c:v>
+                  <c:v>5017.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14388.0</c:v>
+                  <c:v>3055.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8602.0</c:v>
+                  <c:v>1479.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4643.0</c:v>
+                  <c:v>1086.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3587.0</c:v>
+                  <c:v>884.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3204.0</c:v>
+                  <c:v>880.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2866.0</c:v>
+                  <c:v>1240.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3990,37 +3940,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>27199.0</c:v>
+                  <c:v>29845.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25411.0</c:v>
+                  <c:v>20379.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22316.0</c:v>
+                  <c:v>12676.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21979.0</c:v>
+                  <c:v>8285.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17210.0</c:v>
+                  <c:v>4792.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12150.0</c:v>
+                  <c:v>3647.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8055.0</c:v>
+                  <c:v>2017.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4666.0</c:v>
+                  <c:v>1621.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3598.0</c:v>
+                  <c:v>1035.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3418.0</c:v>
+                  <c:v>1021.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2842.0</c:v>
+                  <c:v>973.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4091,37 +4041,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>28819.2</c:v>
+                  <c:v>28708.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26091.0</c:v>
+                  <c:v>19131.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23593.0</c:v>
+                  <c:v>12797.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23429.2</c:v>
+                  <c:v>8083.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19120.6</c:v>
+                  <c:v>5231.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13632.8</c:v>
+                  <c:v>3226.6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8291.2</c:v>
+                  <c:v>1623.6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4657.4</c:v>
+                  <c:v>1178.4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3529.0</c:v>
+                  <c:v>921.4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3202.8</c:v>
+                  <c:v>992.6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2793.4</c:v>
+                  <c:v>1073.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4137,11 +4087,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2073818432"/>
-        <c:axId val="-2077825744"/>
+        <c:axId val="-2094946160"/>
+        <c:axId val="-2094224352"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2073818432"/>
+        <c:axId val="-2094946160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4240,7 +4190,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2077825744"/>
+        <c:crossAx val="-2094224352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4248,7 +4198,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2077825744"/>
+        <c:axId val="-2094224352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4360,7 +4310,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2073818432"/>
+        <c:crossAx val="-2094946160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4578,34 +4528,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>40315.0</c:v>
+                  <c:v>8530.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20770.0</c:v>
+                  <c:v>3528.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14289.0</c:v>
+                  <c:v>2836.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10225.0</c:v>
+                  <c:v>1996.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8843.0</c:v>
+                  <c:v>1736.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6754.0</c:v>
+                  <c:v>1603.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5989.0</c:v>
+                  <c:v>1560.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5524.0</c:v>
+                  <c:v>1261.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4690.0</c:v>
+                  <c:v>813.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4464.0</c:v>
+                  <c:v>673.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4673,34 +4623,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>40309.0</c:v>
+                  <c:v>8860.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19354.0</c:v>
+                  <c:v>4091.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13669.0</c:v>
+                  <c:v>3009.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10536.0</c:v>
+                  <c:v>1954.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8424.0</c:v>
+                  <c:v>2020.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6817.0</c:v>
+                  <c:v>1347.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6127.0</c:v>
+                  <c:v>1192.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5537.0</c:v>
+                  <c:v>1272.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4874.0</c:v>
+                  <c:v>1092.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4050.0</c:v>
+                  <c:v>751.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4768,34 +4718,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>41421.0</c:v>
+                  <c:v>8049.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21136.0</c:v>
+                  <c:v>4250.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13721.0</c:v>
+                  <c:v>3098.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10334.0</c:v>
+                  <c:v>3001.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8231.0</c:v>
+                  <c:v>2010.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6973.0</c:v>
+                  <c:v>1600.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5927.0</c:v>
+                  <c:v>1766.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5296.0</c:v>
+                  <c:v>1536.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4693.0</c:v>
+                  <c:v>1090.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3828.0</c:v>
+                  <c:v>847.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4863,34 +4813,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>40973.0</c:v>
+                  <c:v>8480.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19710.0</c:v>
+                  <c:v>4434.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13441.0</c:v>
+                  <c:v>2908.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10175.0</c:v>
+                  <c:v>2065.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8206.0</c:v>
+                  <c:v>1806.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6557.0</c:v>
+                  <c:v>1097.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5923.0</c:v>
+                  <c:v>1272.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5499.0</c:v>
+                  <c:v>1387.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4854.0</c:v>
+                  <c:v>942.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3648.0</c:v>
+                  <c:v>784.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4958,34 +4908,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>40891.0</c:v>
+                  <c:v>10083.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20164.0</c:v>
+                  <c:v>4771.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13313.0</c:v>
+                  <c:v>3503.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10947.0</c:v>
+                  <c:v>2646.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8633.0</c:v>
+                  <c:v>2838.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7165.0</c:v>
+                  <c:v>1313.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6338.0</c:v>
+                  <c:v>1258.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5314.0</c:v>
+                  <c:v>1181.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4689.0</c:v>
+                  <c:v>912.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4391.0</c:v>
+                  <c:v>1029.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5053,34 +5003,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>40781.8</c:v>
+                  <c:v>8800.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20226.8</c:v>
+                  <c:v>4214.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13686.6</c:v>
+                  <c:v>3070.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10443.4</c:v>
+                  <c:v>2332.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8467.4</c:v>
+                  <c:v>2082.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6853.2</c:v>
+                  <c:v>1392.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6060.8</c:v>
+                  <c:v>1409.6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5434.0</c:v>
+                  <c:v>1327.4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4760.0</c:v>
+                  <c:v>969.8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4076.2</c:v>
+                  <c:v>816.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5096,11 +5046,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2079373616"/>
-        <c:axId val="-2099286032"/>
+        <c:axId val="-2073310992"/>
+        <c:axId val="-2073305152"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2079373616"/>
+        <c:axId val="-2073310992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5199,7 +5149,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2099286032"/>
+        <c:crossAx val="-2073305152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5207,7 +5157,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2099286032"/>
+        <c:axId val="-2073305152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5319,7 +5269,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2079373616"/>
+        <c:crossAx val="-2073310992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5542,34 +5492,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3942.0</c:v>
+                  <c:v>726.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6628.0</c:v>
+                  <c:v>1020.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8213.0</c:v>
+                  <c:v>1754.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8360.0</c:v>
+                  <c:v>1763.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8421.0</c:v>
+                  <c:v>1978.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8288.0</c:v>
+                  <c:v>1657.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9074.0</c:v>
+                  <c:v>1604.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8892.0</c:v>
+                  <c:v>1560.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9090.0</c:v>
+                  <c:v>1800.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9254.0</c:v>
+                  <c:v>1814.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5637,34 +5587,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3266.0</c:v>
+                  <c:v>954.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5861.0</c:v>
+                  <c:v>1006.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6808.0</c:v>
+                  <c:v>1760.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8277.0</c:v>
+                  <c:v>2104.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8076.0</c:v>
+                  <c:v>1415.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8618.0</c:v>
+                  <c:v>1702.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8608.0</c:v>
+                  <c:v>2106.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9064.0</c:v>
+                  <c:v>1989.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9131.0</c:v>
+                  <c:v>1976.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9263.0</c:v>
+                  <c:v>2147.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5732,34 +5682,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4877.0</c:v>
+                  <c:v>892.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6668.0</c:v>
+                  <c:v>1312.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7803.0</c:v>
+                  <c:v>1374.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7885.0</c:v>
+                  <c:v>1995.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8008.0</c:v>
+                  <c:v>1993.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8625.0</c:v>
+                  <c:v>1980.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8420.0</c:v>
+                  <c:v>2072.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8850.0</c:v>
+                  <c:v>2127.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9324.0</c:v>
+                  <c:v>2354.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9463.0</c:v>
+                  <c:v>2475.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5827,34 +5777,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3346.0</c:v>
+                  <c:v>743.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6224.0</c:v>
+                  <c:v>998.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7003.0</c:v>
+                  <c:v>1757.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8855.0</c:v>
+                  <c:v>2062.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8131.0</c:v>
+                  <c:v>3167.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8661.0</c:v>
+                  <c:v>2752.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8865.0</c:v>
+                  <c:v>2098.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8922.0</c:v>
+                  <c:v>1798.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8869.0</c:v>
+                  <c:v>2638.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8963.0</c:v>
+                  <c:v>2642.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5922,34 +5872,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4043.0</c:v>
+                  <c:v>785.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6897.0</c:v>
+                  <c:v>1086.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7127.0</c:v>
+                  <c:v>1094.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8164.0</c:v>
+                  <c:v>1448.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8543.0</c:v>
+                  <c:v>1750.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9859.0</c:v>
+                  <c:v>1703.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8983.0</c:v>
+                  <c:v>2300.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8707.0</c:v>
+                  <c:v>2142.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8802.0</c:v>
+                  <c:v>2220.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9180.0</c:v>
+                  <c:v>2503.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6017,34 +5967,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3894.8</c:v>
+                  <c:v>820.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6455.6</c:v>
+                  <c:v>1084.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7390.8</c:v>
+                  <c:v>1547.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8308.2</c:v>
+                  <c:v>1874.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8235.799999999999</c:v>
+                  <c:v>2060.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8810.2</c:v>
+                  <c:v>1958.8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8790.0</c:v>
+                  <c:v>2036.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8887.0</c:v>
+                  <c:v>1923.2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9043.2</c:v>
+                  <c:v>2197.6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9224.6</c:v>
+                  <c:v>2316.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6060,11 +6010,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2075226512"/>
-        <c:axId val="-2080145728"/>
+        <c:axId val="-2073469040"/>
+        <c:axId val="-2073477360"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2075226512"/>
+        <c:axId val="-2073469040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6163,7 +6113,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2080145728"/>
+        <c:crossAx val="-2073477360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6171,7 +6121,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2080145728"/>
+        <c:axId val="-2073477360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6278,7 +6228,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2075226512"/>
+        <c:crossAx val="-2073469040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9946,16 +9896,16 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B5:H16" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="13" tableBorderDxfId="14" totalsRowBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B5:H16" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
   <autoFilter ref="B5:H16"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="N" dataDxfId="0"/>
-    <tableColumn id="2" name="Round 1" dataDxfId="11"/>
-    <tableColumn id="3" name="Round 2" dataDxfId="10"/>
-    <tableColumn id="4" name="Round 3" dataDxfId="9"/>
-    <tableColumn id="5" name="Round 4" dataDxfId="8"/>
-    <tableColumn id="6" name="Round 5" dataDxfId="7"/>
-    <tableColumn id="7" name="Average" dataDxfId="6">
+    <tableColumn id="1" name="N" dataDxfId="6"/>
+    <tableColumn id="2" name="Round 1" dataDxfId="5"/>
+    <tableColumn id="3" name="Round 2" dataDxfId="4"/>
+    <tableColumn id="4" name="Round 3" dataDxfId="3"/>
+    <tableColumn id="5" name="Round 4" dataDxfId="2"/>
+    <tableColumn id="6" name="Round 5" dataDxfId="1"/>
+    <tableColumn id="7" name="Average" dataDxfId="0">
       <calculatedColumnFormula>AVERAGE(C6:G6)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10264,8 +10214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="106" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="106" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10318,23 +10268,23 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>28606</v>
+        <v>30067</v>
       </c>
       <c r="D6">
-        <v>29400</v>
+        <v>31044</v>
       </c>
       <c r="E6">
-        <v>27127</v>
+        <v>33498</v>
       </c>
       <c r="F6">
-        <v>28350</v>
+        <v>29133</v>
       </c>
       <c r="G6">
-        <v>26488</v>
+        <v>29685</v>
       </c>
       <c r="H6">
         <f>AVERAGE(C6:G6)</f>
-        <v>27994.2</v>
+        <v>30685.4</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -10342,23 +10292,23 @@
         <v>2</v>
       </c>
       <c r="C7">
-        <v>25459</v>
+        <v>20366</v>
       </c>
       <c r="D7">
-        <v>24243</v>
+        <v>20302</v>
       </c>
       <c r="E7">
-        <v>32337</v>
+        <v>20358</v>
       </c>
       <c r="F7">
-        <v>27222</v>
+        <v>21566</v>
       </c>
       <c r="G7">
-        <v>28691</v>
+        <v>19585</v>
       </c>
       <c r="H7">
         <f t="shared" ref="H7:H16" si="0">AVERAGE(C7:G7)</f>
-        <v>27590.400000000001</v>
+        <v>20435.400000000001</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -10366,23 +10316,23 @@
         <v>4</v>
       </c>
       <c r="C8">
-        <v>26538</v>
+        <v>14416</v>
       </c>
       <c r="D8">
-        <v>27619</v>
+        <v>19592</v>
       </c>
       <c r="E8">
-        <v>24792</v>
+        <v>17553</v>
       </c>
       <c r="F8">
-        <v>25006</v>
+        <v>19850</v>
       </c>
       <c r="G8">
-        <v>25153</v>
+        <v>14709</v>
       </c>
       <c r="H8">
         <f t="shared" si="0"/>
-        <v>25821.599999999999</v>
+        <v>17224</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -10391,23 +10341,23 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>23998</v>
+        <v>12820</v>
       </c>
       <c r="D9">
-        <v>25413</v>
+        <v>17602</v>
       </c>
       <c r="E9">
-        <v>20543</v>
+        <v>12036</v>
       </c>
       <c r="F9">
-        <v>18469</v>
+        <v>12052</v>
       </c>
       <c r="G9">
-        <v>23546</v>
+        <v>12692</v>
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
-        <v>22393.8</v>
+        <v>13440.4</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -10416,23 +10366,23 @@
         <v>16</v>
       </c>
       <c r="C10">
-        <v>19395</v>
+        <v>11880</v>
       </c>
       <c r="D10">
-        <v>19413</v>
+        <v>15690</v>
       </c>
       <c r="E10">
-        <v>21376</v>
+        <v>11867</v>
       </c>
       <c r="F10">
-        <v>19539</v>
+        <v>11280</v>
       </c>
       <c r="G10">
-        <v>20135</v>
+        <v>12289</v>
       </c>
       <c r="H10">
         <f t="shared" si="0"/>
-        <v>19971.599999999999</v>
+        <v>12601.2</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -10441,23 +10391,23 @@
         <v>32</v>
       </c>
       <c r="C11">
-        <v>15730</v>
+        <v>10574</v>
       </c>
       <c r="D11">
-        <v>15783</v>
+        <v>12847</v>
       </c>
       <c r="E11">
-        <v>14753</v>
+        <v>9002</v>
       </c>
       <c r="F11">
-        <v>15773</v>
+        <v>10958</v>
       </c>
       <c r="G11">
-        <v>16507</v>
+        <v>11532</v>
       </c>
       <c r="H11">
         <f t="shared" si="0"/>
-        <v>15709.2</v>
+        <v>10982.6</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -10466,23 +10416,23 @@
         <v>64</v>
       </c>
       <c r="C12">
-        <v>11667</v>
+        <v>10253</v>
       </c>
       <c r="D12">
-        <v>10444</v>
+        <v>11600</v>
       </c>
       <c r="E12">
-        <v>10640</v>
+        <v>11574</v>
       </c>
       <c r="F12">
-        <v>9628</v>
+        <v>10326</v>
       </c>
       <c r="G12">
-        <v>9485</v>
+        <v>10778</v>
       </c>
       <c r="H12">
         <f t="shared" si="0"/>
-        <v>10372.799999999999</v>
+        <v>10906.2</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -10491,23 +10441,23 @@
         <v>128</v>
       </c>
       <c r="C13">
-        <v>5971</v>
+        <v>11264</v>
       </c>
       <c r="D13">
-        <v>6833</v>
+        <v>13457</v>
       </c>
       <c r="E13">
-        <v>6817</v>
+        <v>14836</v>
       </c>
       <c r="F13">
-        <v>7966</v>
+        <v>14618</v>
       </c>
       <c r="G13">
-        <v>7940</v>
+        <v>11105</v>
       </c>
       <c r="H13">
         <f t="shared" si="0"/>
-        <v>7105.4</v>
+        <v>13056</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -10516,23 +10466,23 @@
         <v>256</v>
       </c>
       <c r="C14">
-        <v>6500</v>
+        <v>13520</v>
       </c>
       <c r="D14">
-        <v>7070</v>
+        <v>13533</v>
       </c>
       <c r="E14">
-        <v>7028</v>
+        <v>14511</v>
       </c>
       <c r="F14">
-        <v>7489</v>
+        <v>15121</v>
       </c>
       <c r="G14">
-        <v>7301</v>
+        <v>13478</v>
       </c>
       <c r="H14">
         <f t="shared" si="0"/>
-        <v>7077.6</v>
+        <v>14032.6</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -10541,23 +10491,23 @@
         <v>512</v>
       </c>
       <c r="C15">
-        <v>7086</v>
+        <v>15865</v>
       </c>
       <c r="D15">
-        <v>7880</v>
+        <v>15082</v>
       </c>
       <c r="E15">
-        <v>7754</v>
+        <v>17944</v>
       </c>
       <c r="F15">
-        <v>6699</v>
+        <v>15123</v>
       </c>
       <c r="G15">
-        <v>6965</v>
+        <v>14169</v>
       </c>
       <c r="H15">
         <f t="shared" si="0"/>
-        <v>7276.8</v>
+        <v>15636.6</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -10565,23 +10515,23 @@
         <v>1024</v>
       </c>
       <c r="C16">
-        <v>6386</v>
+        <v>16650</v>
       </c>
       <c r="D16">
-        <v>5800</v>
+        <v>17609</v>
       </c>
       <c r="E16">
-        <v>6488</v>
+        <v>23617</v>
       </c>
       <c r="F16">
-        <v>6290</v>
+        <v>19179</v>
       </c>
       <c r="G16">
-        <v>6214</v>
+        <v>17096</v>
       </c>
       <c r="H16">
         <f t="shared" si="0"/>
-        <v>6235.6</v>
+        <v>18830.2</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -10623,23 +10573,23 @@
         <v>100</v>
       </c>
       <c r="C22">
-        <v>54770</v>
+        <v>50519</v>
       </c>
       <c r="D22">
-        <v>56400</v>
+        <v>54965</v>
       </c>
       <c r="E22">
-        <v>53535</v>
+        <v>56866</v>
       </c>
       <c r="F22">
-        <v>51109</v>
+        <v>55915</v>
       </c>
       <c r="G22">
-        <v>54646</v>
+        <v>51851</v>
       </c>
       <c r="H22">
         <f>AVERAGE(C22:G22)</f>
-        <v>54092</v>
+        <v>54023.199999999997</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -10647,23 +10597,23 @@
         <v>200</v>
       </c>
       <c r="C23">
-        <v>25837</v>
+        <v>24985</v>
       </c>
       <c r="D23">
-        <v>27249</v>
+        <v>24797</v>
       </c>
       <c r="E23">
-        <v>27607</v>
+        <v>26082</v>
       </c>
       <c r="F23">
-        <v>24153</v>
+        <v>26945</v>
       </c>
       <c r="G23">
-        <v>26487</v>
+        <v>26444</v>
       </c>
       <c r="H23">
         <f t="shared" ref="H23:H31" si="2">AVERAGE(C23:G23)</f>
-        <v>26266.6</v>
+        <v>25850.6</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -10671,23 +10621,23 @@
         <v>300</v>
       </c>
       <c r="C24">
-        <v>18004</v>
+        <v>18755</v>
       </c>
       <c r="D24">
-        <v>16590</v>
+        <v>18346</v>
       </c>
       <c r="E24">
-        <v>17700</v>
+        <v>18549</v>
       </c>
       <c r="F24">
-        <v>18694</v>
+        <v>21207</v>
       </c>
       <c r="G24">
-        <v>17276</v>
+        <v>20474</v>
       </c>
       <c r="H24">
         <f t="shared" si="2"/>
-        <v>17652.8</v>
+        <v>19466.2</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -10695,23 +10645,23 @@
         <v>400</v>
       </c>
       <c r="C25">
-        <v>12372</v>
+        <v>13730</v>
       </c>
       <c r="D25">
-        <v>12953</v>
+        <v>14715</v>
       </c>
       <c r="E25">
-        <v>15315</v>
+        <v>14241</v>
       </c>
       <c r="F25">
-        <v>12810</v>
+        <v>17295</v>
       </c>
       <c r="G25">
-        <v>12555</v>
+        <v>14624</v>
       </c>
       <c r="H25">
         <f t="shared" si="2"/>
-        <v>13201</v>
+        <v>14921</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -10719,23 +10669,23 @@
         <v>500</v>
       </c>
       <c r="C26">
-        <v>9237</v>
+        <v>10305</v>
       </c>
       <c r="D26">
-        <v>9161</v>
+        <v>13345</v>
       </c>
       <c r="E26">
-        <v>10438</v>
+        <v>10616</v>
       </c>
       <c r="F26">
-        <v>10785</v>
+        <v>11639</v>
       </c>
       <c r="G26">
-        <v>10876</v>
+        <v>12174</v>
       </c>
       <c r="H26">
         <f t="shared" si="2"/>
-        <v>10099.4</v>
+        <v>11615.8</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -10743,23 +10693,23 @@
         <v>600</v>
       </c>
       <c r="C27">
-        <v>7154</v>
+        <v>9093</v>
       </c>
       <c r="D27">
-        <v>9145</v>
+        <v>7715</v>
       </c>
       <c r="E27">
-        <v>8993</v>
+        <v>8753</v>
       </c>
       <c r="F27">
-        <v>9396</v>
+        <v>10090</v>
       </c>
       <c r="G27">
-        <v>8403</v>
+        <v>9496</v>
       </c>
       <c r="H27">
         <f t="shared" si="2"/>
-        <v>8618.2000000000007</v>
+        <v>9029.4</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -10767,23 +10717,23 @@
         <v>700</v>
       </c>
       <c r="C28">
-        <v>6931</v>
+        <v>8055</v>
       </c>
       <c r="D28">
-        <v>7669</v>
+        <v>8297</v>
       </c>
       <c r="E28">
-        <v>6943</v>
+        <v>6773</v>
       </c>
       <c r="F28">
-        <v>8433</v>
+        <v>8321</v>
       </c>
       <c r="G28">
-        <v>7925</v>
+        <v>6138</v>
       </c>
       <c r="H28">
         <f t="shared" si="2"/>
-        <v>7580.2</v>
+        <v>7516.8</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -10791,23 +10741,23 @@
         <v>800</v>
       </c>
       <c r="C29">
-        <v>7116</v>
+        <v>6777</v>
       </c>
       <c r="D29">
-        <v>7312</v>
+        <v>6645</v>
       </c>
       <c r="E29">
-        <v>5870</v>
+        <v>6060</v>
       </c>
       <c r="F29">
-        <v>7524</v>
+        <v>7403</v>
       </c>
       <c r="G29">
-        <v>6023</v>
+        <v>6160</v>
       </c>
       <c r="H29">
         <f t="shared" si="2"/>
-        <v>6769</v>
+        <v>6609</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -10815,23 +10765,23 @@
         <v>900</v>
       </c>
       <c r="C30">
-        <v>5779</v>
+        <v>5521</v>
       </c>
       <c r="D30">
-        <v>5484</v>
+        <v>5520</v>
       </c>
       <c r="E30">
-        <v>7621</v>
+        <v>6095</v>
       </c>
       <c r="F30">
-        <v>6784</v>
+        <v>7125</v>
       </c>
       <c r="G30">
-        <v>5845</v>
+        <v>6075</v>
       </c>
       <c r="H30">
         <f t="shared" si="2"/>
-        <v>6302.6</v>
+        <v>6067.2</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -10839,23 +10789,23 @@
         <v>1000</v>
       </c>
       <c r="C31">
-        <v>6079</v>
+        <v>6177</v>
       </c>
       <c r="D31">
-        <v>6018</v>
+        <v>4923</v>
       </c>
       <c r="E31">
-        <v>5384</v>
+        <v>4692</v>
       </c>
       <c r="F31">
-        <v>5369</v>
+        <v>4987</v>
       </c>
       <c r="G31">
-        <v>5627</v>
+        <v>5068</v>
       </c>
       <c r="H31">
         <f t="shared" si="2"/>
-        <v>5695.4</v>
+        <v>5169.3999999999996</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
@@ -10897,23 +10847,23 @@
         <v>0.01</v>
       </c>
       <c r="C38">
-        <v>5541</v>
+        <v>2658</v>
       </c>
       <c r="D38">
-        <v>4098</v>
+        <v>3224</v>
       </c>
       <c r="E38">
-        <v>4072</v>
+        <v>3028</v>
       </c>
       <c r="F38">
-        <v>3918</v>
+        <v>3182</v>
       </c>
       <c r="G38">
-        <v>4307</v>
+        <v>2763</v>
       </c>
       <c r="H38">
         <f t="shared" ref="H38:H47" si="3">AVERAGE(C38:G38)</f>
-        <v>4387.2</v>
+        <v>2971</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
@@ -10921,23 +10871,23 @@
         <v>0.02</v>
       </c>
       <c r="C39">
-        <v>7563</v>
+        <v>5740</v>
       </c>
       <c r="D39">
-        <v>6920</v>
+        <v>4222</v>
       </c>
       <c r="E39">
-        <v>5503</v>
+        <v>5033</v>
       </c>
       <c r="F39">
-        <v>6819</v>
+        <v>5376</v>
       </c>
       <c r="G39">
-        <v>6392</v>
+        <v>4851</v>
       </c>
       <c r="H39">
         <f t="shared" si="3"/>
-        <v>6639.4</v>
+        <v>5044.3999999999996</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
@@ -10945,23 +10895,23 @@
         <v>0.03</v>
       </c>
       <c r="C40">
-        <v>9025</v>
+        <v>7295</v>
       </c>
       <c r="D40">
-        <v>8046</v>
+        <v>7122</v>
       </c>
       <c r="E40">
-        <v>8357</v>
+        <v>6500</v>
       </c>
       <c r="F40">
-        <v>8253</v>
+        <v>7487</v>
       </c>
       <c r="G40">
-        <v>8849</v>
+        <v>6130</v>
       </c>
       <c r="H40">
         <f t="shared" si="3"/>
-        <v>8506</v>
+        <v>6906.8</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
@@ -10969,23 +10919,23 @@
         <v>0.04</v>
       </c>
       <c r="C41">
-        <v>10041</v>
+        <v>8618</v>
       </c>
       <c r="D41">
-        <v>9803</v>
+        <v>9798</v>
       </c>
       <c r="E41">
-        <v>10276</v>
+        <v>8680</v>
       </c>
       <c r="F41">
-        <v>9326</v>
+        <v>7222</v>
       </c>
       <c r="G41">
-        <v>8743</v>
+        <v>8856</v>
       </c>
       <c r="H41">
         <f t="shared" si="3"/>
-        <v>9637.7999999999993</v>
+        <v>8634.7999999999993</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
@@ -10993,23 +10943,23 @@
         <v>0.05</v>
       </c>
       <c r="C42">
-        <v>11032</v>
+        <v>9658</v>
       </c>
       <c r="D42">
-        <v>10121</v>
+        <v>11063</v>
       </c>
       <c r="E42">
-        <v>10521</v>
+        <v>9626</v>
       </c>
       <c r="F42">
-        <v>11525</v>
+        <v>12174</v>
       </c>
       <c r="G42">
-        <v>10675</v>
+        <v>11404</v>
       </c>
       <c r="H42">
         <f t="shared" si="3"/>
-        <v>10774.8</v>
+        <v>10785</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
@@ -11017,23 +10967,23 @@
         <v>0.06</v>
       </c>
       <c r="C43">
-        <v>10066</v>
+        <v>14105</v>
       </c>
       <c r="D43">
-        <v>12197</v>
+        <v>11905</v>
       </c>
       <c r="E43">
-        <v>12461</v>
+        <v>12605</v>
       </c>
       <c r="F43">
-        <v>10497</v>
+        <v>12422</v>
       </c>
       <c r="G43">
-        <v>11681</v>
+        <v>13894</v>
       </c>
       <c r="H43">
         <f t="shared" si="3"/>
-        <v>11380.4</v>
+        <v>12986.2</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
@@ -11041,23 +10991,23 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C44">
-        <v>12284</v>
+        <v>16454</v>
       </c>
       <c r="D44">
-        <v>14572</v>
+        <v>15374</v>
       </c>
       <c r="E44">
-        <v>12512</v>
+        <v>15038</v>
       </c>
       <c r="F44">
-        <v>13575</v>
+        <v>15344</v>
       </c>
       <c r="G44">
-        <v>11076</v>
+        <v>18142</v>
       </c>
       <c r="H44">
         <f t="shared" si="3"/>
-        <v>12803.8</v>
+        <v>16070.4</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
@@ -11065,23 +11015,23 @@
         <v>0.08</v>
       </c>
       <c r="C45">
-        <v>12565</v>
+        <v>24115</v>
       </c>
       <c r="D45">
-        <v>12785</v>
+        <v>17994</v>
       </c>
       <c r="E45">
-        <v>12432</v>
+        <v>17028</v>
       </c>
       <c r="F45">
-        <v>12469</v>
+        <v>18193</v>
       </c>
       <c r="G45">
-        <v>12123</v>
+        <v>18348</v>
       </c>
       <c r="H45">
         <f t="shared" si="3"/>
-        <v>12474.8</v>
+        <v>19135.599999999999</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
@@ -11089,23 +11039,23 @@
         <v>0.09</v>
       </c>
       <c r="C46">
-        <v>12763</v>
+        <v>25070</v>
       </c>
       <c r="D46">
-        <v>13733</v>
+        <v>19603</v>
       </c>
       <c r="E46">
-        <v>15222</v>
+        <v>21822</v>
       </c>
       <c r="F46">
-        <v>14768</v>
+        <v>20785</v>
       </c>
       <c r="G46">
-        <v>14759</v>
+        <v>18685</v>
       </c>
       <c r="H46">
         <f t="shared" si="3"/>
-        <v>14249</v>
+        <v>21193</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
@@ -11113,23 +11063,23 @@
         <v>0.1</v>
       </c>
       <c r="C47">
-        <v>14383</v>
+        <v>22211</v>
       </c>
       <c r="D47">
-        <v>14572</v>
+        <v>22855</v>
       </c>
       <c r="E47">
-        <v>15072</v>
+        <v>23839</v>
       </c>
       <c r="F47">
-        <v>14587</v>
+        <v>23644</v>
       </c>
       <c r="G47">
-        <v>15480</v>
+        <v>23935</v>
       </c>
       <c r="H47">
         <f t="shared" si="3"/>
-        <v>14818.8</v>
+        <v>23296.799999999999</v>
       </c>
     </row>
   </sheetData>
@@ -11148,7 +11098,7 @@
   <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView zoomScale="106" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C38" sqref="C38:G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11200,23 +11150,23 @@
         <v>1</v>
       </c>
       <c r="C6" s="1">
-        <v>32628</v>
+        <v>27164</v>
       </c>
       <c r="D6" s="1">
-        <v>31010</v>
+        <v>27917</v>
       </c>
       <c r="E6" s="1">
-        <v>28128</v>
+        <v>29601</v>
       </c>
       <c r="F6" s="1">
-        <v>25131</v>
+        <v>29017</v>
       </c>
       <c r="G6" s="1">
-        <v>27199</v>
+        <v>29845</v>
       </c>
       <c r="H6" s="2">
         <f>AVERAGE(C6:G6)</f>
-        <v>28819.200000000001</v>
+        <v>28708.799999999999</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -11224,23 +11174,23 @@
         <v>2</v>
       </c>
       <c r="C7" s="1">
-        <v>24774</v>
+        <v>19408</v>
       </c>
       <c r="D7" s="1">
-        <v>29151</v>
+        <v>17874</v>
       </c>
       <c r="E7" s="1">
-        <v>26849</v>
+        <v>19080</v>
       </c>
       <c r="F7" s="1">
-        <v>24270</v>
+        <v>18915</v>
       </c>
       <c r="G7" s="1">
-        <v>25411</v>
+        <v>20379</v>
       </c>
       <c r="H7" s="2">
         <f t="shared" ref="H7:H16" si="0">AVERAGE(C7:G7)</f>
-        <v>26091</v>
+        <v>19131.2</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -11248,23 +11198,23 @@
         <v>4</v>
       </c>
       <c r="C8" s="1">
-        <v>23740</v>
+        <v>13143</v>
       </c>
       <c r="D8" s="1">
-        <v>24367</v>
+        <v>12095</v>
       </c>
       <c r="E8" s="1">
-        <v>23954</v>
+        <v>12772</v>
       </c>
       <c r="F8" s="1">
-        <v>23588</v>
+        <v>13300</v>
       </c>
       <c r="G8" s="1">
-        <v>22316</v>
+        <v>12676</v>
       </c>
       <c r="H8" s="2">
         <f t="shared" si="0"/>
-        <v>23593</v>
+        <v>12797.2</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -11273,23 +11223,23 @@
         <v>8</v>
       </c>
       <c r="C9" s="1">
-        <v>22110</v>
+        <v>9070</v>
       </c>
       <c r="D9" s="1">
-        <v>26970</v>
+        <v>7366</v>
       </c>
       <c r="E9" s="1">
-        <v>22748</v>
+        <v>8075</v>
       </c>
       <c r="F9" s="1">
-        <v>23339</v>
+        <v>7623</v>
       </c>
       <c r="G9" s="1">
-        <v>21979</v>
+        <v>8285</v>
       </c>
       <c r="H9" s="2">
         <f t="shared" si="0"/>
-        <v>23429.200000000001</v>
+        <v>8083.8</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -11298,23 +11248,23 @@
         <v>16</v>
       </c>
       <c r="C10" s="1">
-        <v>18217</v>
+        <v>5369</v>
       </c>
       <c r="D10" s="1">
-        <v>22075</v>
+        <v>5247</v>
       </c>
       <c r="E10" s="1">
-        <v>20250</v>
+        <v>5734</v>
       </c>
       <c r="F10" s="1">
-        <v>17851</v>
+        <v>5017</v>
       </c>
       <c r="G10" s="1">
-        <v>17210</v>
+        <v>4792</v>
       </c>
       <c r="H10" s="2">
         <f t="shared" si="0"/>
-        <v>19120.599999999999</v>
+        <v>5231.8</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -11323,23 +11273,23 @@
         <v>32</v>
       </c>
       <c r="C11" s="1">
-        <v>13588</v>
+        <v>3108</v>
       </c>
       <c r="D11" s="1">
-        <v>13022</v>
+        <v>2835</v>
       </c>
       <c r="E11" s="1">
-        <v>15016</v>
+        <v>3488</v>
       </c>
       <c r="F11" s="1">
-        <v>14388</v>
+        <v>3055</v>
       </c>
       <c r="G11" s="1">
-        <v>12150</v>
+        <v>3647</v>
       </c>
       <c r="H11" s="2">
         <f t="shared" si="0"/>
-        <v>13632.8</v>
+        <v>3226.6</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -11348,23 +11298,23 @@
         <v>64</v>
       </c>
       <c r="C12" s="1">
-        <v>8252</v>
+        <v>1635</v>
       </c>
       <c r="D12" s="1">
-        <v>8243</v>
+        <v>1495</v>
       </c>
       <c r="E12" s="1">
-        <v>8304</v>
+        <v>1492</v>
       </c>
       <c r="F12" s="1">
-        <v>8602</v>
+        <v>1479</v>
       </c>
       <c r="G12" s="1">
-        <v>8055</v>
+        <v>2017</v>
       </c>
       <c r="H12" s="2">
         <f t="shared" si="0"/>
-        <v>8291.2000000000007</v>
+        <v>1623.6</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -11373,23 +11323,23 @@
         <v>128</v>
       </c>
       <c r="C13" s="1">
-        <v>4472</v>
+        <v>913</v>
       </c>
       <c r="D13" s="1">
-        <v>4849</v>
+        <v>905</v>
       </c>
       <c r="E13" s="1">
-        <v>4657</v>
+        <v>1367</v>
       </c>
       <c r="F13" s="1">
-        <v>4643</v>
+        <v>1086</v>
       </c>
       <c r="G13" s="1">
-        <v>4666</v>
+        <v>1621</v>
       </c>
       <c r="H13" s="2">
         <f t="shared" si="0"/>
-        <v>4657.3999999999996</v>
+        <v>1178.4000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -11398,23 +11348,23 @@
         <v>256</v>
       </c>
       <c r="C14" s="1">
-        <v>3470</v>
+        <v>834</v>
       </c>
       <c r="D14" s="1">
-        <v>3396</v>
+        <v>899</v>
       </c>
       <c r="E14" s="1">
-        <v>3594</v>
+        <v>955</v>
       </c>
       <c r="F14" s="1">
-        <v>3587</v>
+        <v>884</v>
       </c>
       <c r="G14" s="1">
-        <v>3598</v>
+        <v>1035</v>
       </c>
       <c r="H14" s="2">
         <f t="shared" si="0"/>
-        <v>3529</v>
+        <v>921.4</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -11423,23 +11373,23 @@
         <v>512</v>
       </c>
       <c r="C15" s="1">
-        <v>3318</v>
+        <v>1121</v>
       </c>
       <c r="D15" s="1">
-        <v>3025</v>
+        <v>915</v>
       </c>
       <c r="E15" s="1">
-        <v>3049</v>
+        <v>1026</v>
       </c>
       <c r="F15" s="1">
-        <v>3204</v>
+        <v>880</v>
       </c>
       <c r="G15" s="1">
-        <v>3418</v>
+        <v>1021</v>
       </c>
       <c r="H15" s="2">
         <f t="shared" si="0"/>
-        <v>3202.8</v>
+        <v>992.6</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -11447,23 +11397,23 @@
         <v>1024</v>
       </c>
       <c r="C16" s="5">
-        <v>2641</v>
+        <v>1077</v>
       </c>
       <c r="D16" s="5">
-        <v>2898</v>
+        <v>1033</v>
       </c>
       <c r="E16" s="5">
-        <v>2720</v>
+        <v>1042</v>
       </c>
       <c r="F16" s="5">
-        <v>2866</v>
+        <v>1240</v>
       </c>
       <c r="G16" s="5">
-        <v>2842</v>
+        <v>973</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" si="0"/>
-        <v>2793.4</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -11505,23 +11455,23 @@
         <v>100</v>
       </c>
       <c r="C22">
-        <v>40315</v>
+        <v>8530</v>
       </c>
       <c r="D22">
-        <v>40309</v>
+        <v>8860</v>
       </c>
       <c r="E22">
-        <v>41421</v>
+        <v>8049</v>
       </c>
       <c r="F22">
-        <v>40973</v>
+        <v>8480</v>
       </c>
       <c r="G22">
-        <v>40891</v>
+        <v>10083</v>
       </c>
       <c r="H22">
         <f>AVERAGE(C22:G22)</f>
-        <v>40781.800000000003</v>
+        <v>8800.4</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -11529,23 +11479,23 @@
         <v>200</v>
       </c>
       <c r="C23">
-        <v>20770</v>
+        <v>3528</v>
       </c>
       <c r="D23">
-        <v>19354</v>
+        <v>4091</v>
       </c>
       <c r="E23">
-        <v>21136</v>
+        <v>4250</v>
       </c>
       <c r="F23">
-        <v>19710</v>
+        <v>4434</v>
       </c>
       <c r="G23">
-        <v>20164</v>
+        <v>4771</v>
       </c>
       <c r="H23">
         <f t="shared" ref="H23:H31" si="2">AVERAGE(C23:G23)</f>
-        <v>20226.8</v>
+        <v>4214.8</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -11553,23 +11503,23 @@
         <v>300</v>
       </c>
       <c r="C24">
-        <v>14289</v>
+        <v>2836</v>
       </c>
       <c r="D24">
-        <v>13669</v>
+        <v>3009</v>
       </c>
       <c r="E24">
-        <v>13721</v>
+        <v>3098</v>
       </c>
       <c r="F24">
-        <v>13441</v>
+        <v>2908</v>
       </c>
       <c r="G24">
-        <v>13313</v>
+        <v>3503</v>
       </c>
       <c r="H24">
         <f t="shared" si="2"/>
-        <v>13686.6</v>
+        <v>3070.8</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -11577,23 +11527,23 @@
         <v>400</v>
       </c>
       <c r="C25">
-        <v>10225</v>
+        <v>1996</v>
       </c>
       <c r="D25">
-        <v>10536</v>
+        <v>1954</v>
       </c>
       <c r="E25">
-        <v>10334</v>
+        <v>3001</v>
       </c>
       <c r="F25">
-        <v>10175</v>
+        <v>2065</v>
       </c>
       <c r="G25">
-        <v>10947</v>
+        <v>2646</v>
       </c>
       <c r="H25">
         <f t="shared" si="2"/>
-        <v>10443.4</v>
+        <v>2332.4</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -11601,23 +11551,23 @@
         <v>500</v>
       </c>
       <c r="C26">
-        <v>8843</v>
+        <v>1736</v>
       </c>
       <c r="D26">
-        <v>8424</v>
+        <v>2020</v>
       </c>
       <c r="E26">
-        <v>8231</v>
+        <v>2010</v>
       </c>
       <c r="F26">
-        <v>8206</v>
+        <v>1806</v>
       </c>
       <c r="G26">
-        <v>8633</v>
+        <v>2838</v>
       </c>
       <c r="H26">
         <f t="shared" si="2"/>
-        <v>8467.4</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -11625,23 +11575,23 @@
         <v>600</v>
       </c>
       <c r="C27">
-        <v>6754</v>
+        <v>1603</v>
       </c>
       <c r="D27">
-        <v>6817</v>
+        <v>1347</v>
       </c>
       <c r="E27">
-        <v>6973</v>
+        <v>1600</v>
       </c>
       <c r="F27">
-        <v>6557</v>
+        <v>1097</v>
       </c>
       <c r="G27">
-        <v>7165</v>
+        <v>1313</v>
       </c>
       <c r="H27">
         <f t="shared" si="2"/>
-        <v>6853.2</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -11649,23 +11599,23 @@
         <v>700</v>
       </c>
       <c r="C28">
-        <v>5989</v>
+        <v>1560</v>
       </c>
       <c r="D28">
-        <v>6127</v>
+        <v>1192</v>
       </c>
       <c r="E28">
-        <v>5927</v>
+        <v>1766</v>
       </c>
       <c r="F28">
-        <v>5923</v>
+        <v>1272</v>
       </c>
       <c r="G28">
-        <v>6338</v>
+        <v>1258</v>
       </c>
       <c r="H28">
         <f t="shared" si="2"/>
-        <v>6060.8</v>
+        <v>1409.6</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -11673,23 +11623,23 @@
         <v>800</v>
       </c>
       <c r="C29">
-        <v>5524</v>
+        <v>1261</v>
       </c>
       <c r="D29">
-        <v>5537</v>
+        <v>1272</v>
       </c>
       <c r="E29">
-        <v>5296</v>
+        <v>1536</v>
       </c>
       <c r="F29">
-        <v>5499</v>
+        <v>1387</v>
       </c>
       <c r="G29">
-        <v>5314</v>
+        <v>1181</v>
       </c>
       <c r="H29">
         <f t="shared" si="2"/>
-        <v>5434</v>
+        <v>1327.4</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -11697,23 +11647,23 @@
         <v>900</v>
       </c>
       <c r="C30">
-        <v>4690</v>
+        <v>813</v>
       </c>
       <c r="D30">
-        <v>4874</v>
+        <v>1092</v>
       </c>
       <c r="E30">
-        <v>4693</v>
+        <v>1090</v>
       </c>
       <c r="F30">
-        <v>4854</v>
+        <v>942</v>
       </c>
       <c r="G30">
-        <v>4689</v>
+        <v>912</v>
       </c>
       <c r="H30">
         <f t="shared" si="2"/>
-        <v>4760</v>
+        <v>969.8</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -11721,23 +11671,23 @@
         <v>1000</v>
       </c>
       <c r="C31">
-        <v>4464</v>
+        <v>673</v>
       </c>
       <c r="D31">
-        <v>4050</v>
+        <v>751</v>
       </c>
       <c r="E31">
-        <v>3828</v>
+        <v>847</v>
       </c>
       <c r="F31">
-        <v>3648</v>
+        <v>784</v>
       </c>
       <c r="G31">
-        <v>4391</v>
+        <v>1029</v>
       </c>
       <c r="H31">
         <f t="shared" si="2"/>
-        <v>4076.2</v>
+        <v>816.8</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
@@ -11779,23 +11729,23 @@
         <v>0.01</v>
       </c>
       <c r="C38">
-        <v>3942</v>
+        <v>726</v>
       </c>
       <c r="D38">
-        <v>3266</v>
+        <v>954</v>
       </c>
       <c r="E38">
-        <v>4877</v>
+        <v>892</v>
       </c>
       <c r="F38">
-        <v>3346</v>
+        <v>743</v>
       </c>
       <c r="G38">
-        <v>4043</v>
+        <v>785</v>
       </c>
       <c r="H38">
         <f t="shared" ref="H38:H47" si="3">AVERAGE(C38:G38)</f>
-        <v>3894.8</v>
+        <v>820</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
@@ -11803,23 +11753,23 @@
         <v>0.02</v>
       </c>
       <c r="C39">
-        <v>6628</v>
+        <v>1020</v>
       </c>
       <c r="D39">
-        <v>5861</v>
+        <v>1006</v>
       </c>
       <c r="E39">
-        <v>6668</v>
+        <v>1312</v>
       </c>
       <c r="F39">
-        <v>6224</v>
+        <v>998</v>
       </c>
       <c r="G39">
-        <v>6897</v>
+        <v>1086</v>
       </c>
       <c r="H39">
         <f t="shared" si="3"/>
-        <v>6455.6</v>
+        <v>1084.4000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
@@ -11827,23 +11777,23 @@
         <v>0.03</v>
       </c>
       <c r="C40">
-        <v>8213</v>
+        <v>1754</v>
       </c>
       <c r="D40">
-        <v>6808</v>
+        <v>1760</v>
       </c>
       <c r="E40">
-        <v>7803</v>
+        <v>1374</v>
       </c>
       <c r="F40">
-        <v>7003</v>
+        <v>1757</v>
       </c>
       <c r="G40">
-        <v>7127</v>
+        <v>1094</v>
       </c>
       <c r="H40">
         <f t="shared" si="3"/>
-        <v>7390.8</v>
+        <v>1547.8</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
@@ -11851,23 +11801,23 @@
         <v>0.04</v>
       </c>
       <c r="C41">
-        <v>8360</v>
+        <v>1763</v>
       </c>
       <c r="D41">
-        <v>8277</v>
+        <v>2104</v>
       </c>
       <c r="E41">
-        <v>7885</v>
+        <v>1995</v>
       </c>
       <c r="F41">
-        <v>8855</v>
+        <v>2062</v>
       </c>
       <c r="G41">
-        <v>8164</v>
+        <v>1448</v>
       </c>
       <c r="H41">
         <f t="shared" si="3"/>
-        <v>8308.2000000000007</v>
+        <v>1874.4</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
@@ -11875,23 +11825,23 @@
         <v>0.05</v>
       </c>
       <c r="C42">
-        <v>8421</v>
+        <v>1978</v>
       </c>
       <c r="D42">
-        <v>8076</v>
+        <v>1415</v>
       </c>
       <c r="E42">
-        <v>8008</v>
+        <v>1993</v>
       </c>
       <c r="F42">
-        <v>8131</v>
+        <v>3167</v>
       </c>
       <c r="G42">
-        <v>8543</v>
+        <v>1750</v>
       </c>
       <c r="H42">
         <f t="shared" si="3"/>
-        <v>8235.7999999999993</v>
+        <v>2060.6</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
@@ -11899,23 +11849,23 @@
         <v>0.06</v>
       </c>
       <c r="C43">
-        <v>8288</v>
+        <v>1657</v>
       </c>
       <c r="D43">
-        <v>8618</v>
+        <v>1702</v>
       </c>
       <c r="E43">
-        <v>8625</v>
+        <v>1980</v>
       </c>
       <c r="F43">
-        <v>8661</v>
+        <v>2752</v>
       </c>
       <c r="G43">
-        <v>9859</v>
+        <v>1703</v>
       </c>
       <c r="H43">
         <f t="shared" si="3"/>
-        <v>8810.2000000000007</v>
+        <v>1958.8</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
@@ -11923,23 +11873,23 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C44">
-        <v>9074</v>
+        <v>1604</v>
       </c>
       <c r="D44">
-        <v>8608</v>
+        <v>2106</v>
       </c>
       <c r="E44">
-        <v>8420</v>
+        <v>2072</v>
       </c>
       <c r="F44">
-        <v>8865</v>
+        <v>2098</v>
       </c>
       <c r="G44">
-        <v>8983</v>
+        <v>2300</v>
       </c>
       <c r="H44">
         <f t="shared" si="3"/>
-        <v>8790</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
@@ -11947,23 +11897,23 @@
         <v>0.08</v>
       </c>
       <c r="C45">
-        <v>8892</v>
+        <v>1560</v>
       </c>
       <c r="D45">
-        <v>9064</v>
+        <v>1989</v>
       </c>
       <c r="E45">
-        <v>8850</v>
+        <v>2127</v>
       </c>
       <c r="F45">
-        <v>8922</v>
+        <v>1798</v>
       </c>
       <c r="G45">
-        <v>8707</v>
+        <v>2142</v>
       </c>
       <c r="H45">
         <f t="shared" si="3"/>
-        <v>8887</v>
+        <v>1923.2</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
@@ -11971,23 +11921,23 @@
         <v>0.09</v>
       </c>
       <c r="C46">
-        <v>9090</v>
+        <v>1800</v>
       </c>
       <c r="D46">
-        <v>9131</v>
+        <v>1976</v>
       </c>
       <c r="E46">
-        <v>9324</v>
+        <v>2354</v>
       </c>
       <c r="F46">
-        <v>8869</v>
+        <v>2638</v>
       </c>
       <c r="G46">
-        <v>8802</v>
+        <v>2220</v>
       </c>
       <c r="H46">
         <f t="shared" si="3"/>
-        <v>9043.2000000000007</v>
+        <v>2197.6</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
@@ -11995,23 +11945,23 @@
         <v>0.1</v>
       </c>
       <c r="C47">
-        <v>9254</v>
+        <v>1814</v>
       </c>
       <c r="D47">
-        <v>9263</v>
+        <v>2147</v>
       </c>
       <c r="E47">
-        <v>9463</v>
+        <v>2475</v>
       </c>
       <c r="F47">
-        <v>8963</v>
+        <v>2642</v>
       </c>
       <c r="G47">
-        <v>9180</v>
+        <v>2503</v>
       </c>
       <c r="H47">
         <f t="shared" si="3"/>
-        <v>9224.6</v>
+        <v>2316.1999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -12024,4 +11974,1419 @@
     <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G156"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>27164</v>
+      </c>
+      <c r="C2">
+        <f>A2</f>
+        <v>27164</v>
+      </c>
+      <c r="D2">
+        <f>A33</f>
+        <v>27917</v>
+      </c>
+      <c r="E2">
+        <f>A64</f>
+        <v>29601</v>
+      </c>
+      <c r="F2">
+        <f>A95</f>
+        <v>29017</v>
+      </c>
+      <c r="G2">
+        <f>A126</f>
+        <v>29845</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>19408</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C12" si="0">A3</f>
+        <v>19408</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D12" si="1">A34</f>
+        <v>17874</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E12" si="2">A65</f>
+        <v>19080</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F12" si="3">A96</f>
+        <v>18915</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G12" si="4">A127</f>
+        <v>20379</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>13143</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>13143</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="1"/>
+        <v>12095</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="2"/>
+        <v>12772</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="3"/>
+        <v>13300</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="4"/>
+        <v>12676</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>9070</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>9070</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>7366</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="2"/>
+        <v>8075</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="3"/>
+        <v>7623</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="4"/>
+        <v>8285</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5369</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>5369</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>5247</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="2"/>
+        <v>5734</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="3"/>
+        <v>5017</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="4"/>
+        <v>4792</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>3108</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>3108</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>2835</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="2"/>
+        <v>3488</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="3"/>
+        <v>3055</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="4"/>
+        <v>3647</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1635</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>1635</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>1495</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="2"/>
+        <v>1492</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="3"/>
+        <v>1479</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="4"/>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>913</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>913</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>905</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="2"/>
+        <v>1367</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="3"/>
+        <v>1086</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="4"/>
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>834</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>834</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>899</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="2"/>
+        <v>955</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="3"/>
+        <v>884</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="4"/>
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1121</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>1121</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>915</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="2"/>
+        <v>1026</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="3"/>
+        <v>880</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="4"/>
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1077</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>1077</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>1033</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="2"/>
+        <v>1042</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="3"/>
+        <v>1240</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="4"/>
+        <v>973</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>8530</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>3528</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ref="C14:C23" si="5">A13</f>
+        <v>8530</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ref="D14:D23" si="6">A44</f>
+        <v>8860</v>
+      </c>
+      <c r="E14">
+        <f t="shared" ref="E14:E23" si="7">A75</f>
+        <v>8049</v>
+      </c>
+      <c r="F14">
+        <f t="shared" ref="F14:F23" si="8">A106</f>
+        <v>8480</v>
+      </c>
+      <c r="G14">
+        <f t="shared" ref="G14:G23" si="9">A137</f>
+        <v>10083</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2836</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="5"/>
+        <v>3528</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="6"/>
+        <v>4091</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="7"/>
+        <v>4250</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="8"/>
+        <v>4434</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="9"/>
+        <v>4771</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>1996</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="5"/>
+        <v>2836</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="6"/>
+        <v>3009</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="7"/>
+        <v>3098</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="8"/>
+        <v>2908</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="9"/>
+        <v>3503</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>1736</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="5"/>
+        <v>1996</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="6"/>
+        <v>1954</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="7"/>
+        <v>3001</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="8"/>
+        <v>2065</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="9"/>
+        <v>2646</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1603</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="5"/>
+        <v>1736</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="6"/>
+        <v>2020</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="7"/>
+        <v>2010</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="8"/>
+        <v>1806</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="9"/>
+        <v>2838</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1560</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="5"/>
+        <v>1603</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="6"/>
+        <v>1347</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="7"/>
+        <v>1600</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="8"/>
+        <v>1097</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="9"/>
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1261</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="5"/>
+        <v>1560</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="6"/>
+        <v>1192</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="7"/>
+        <v>1766</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="8"/>
+        <v>1272</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="9"/>
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>813</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="5"/>
+        <v>1261</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="6"/>
+        <v>1272</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="7"/>
+        <v>1536</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="8"/>
+        <v>1387</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="9"/>
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>673</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="5"/>
+        <v>813</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="6"/>
+        <v>1092</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="7"/>
+        <v>1090</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="8"/>
+        <v>942</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="9"/>
+        <v>912</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>726</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="5"/>
+        <v>673</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="6"/>
+        <v>751</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="7"/>
+        <v>847</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="8"/>
+        <v>784</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="9"/>
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>1754</v>
+      </c>
+      <c r="C25">
+        <f>A23</f>
+        <v>726</v>
+      </c>
+      <c r="D25">
+        <f>A54</f>
+        <v>954</v>
+      </c>
+      <c r="E25">
+        <f>A85</f>
+        <v>892</v>
+      </c>
+      <c r="F25">
+        <f>A116</f>
+        <v>743</v>
+      </c>
+      <c r="G25">
+        <f>A147</f>
+        <v>785</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>1763</v>
+      </c>
+      <c r="C26">
+        <f>A24</f>
+        <v>1020</v>
+      </c>
+      <c r="D26">
+        <f>A55</f>
+        <v>1006</v>
+      </c>
+      <c r="E26">
+        <f>A86</f>
+        <v>1312</v>
+      </c>
+      <c r="F26">
+        <f>A117</f>
+        <v>998</v>
+      </c>
+      <c r="G26">
+        <f>A148</f>
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>1978</v>
+      </c>
+      <c r="C27">
+        <f>A25</f>
+        <v>1754</v>
+      </c>
+      <c r="D27">
+        <f>A56</f>
+        <v>1760</v>
+      </c>
+      <c r="E27">
+        <f>A87</f>
+        <v>1374</v>
+      </c>
+      <c r="F27">
+        <f>A118</f>
+        <v>1757</v>
+      </c>
+      <c r="G27">
+        <f>A149</f>
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>1657</v>
+      </c>
+      <c r="C28">
+        <f>A26</f>
+        <v>1763</v>
+      </c>
+      <c r="D28">
+        <f>A57</f>
+        <v>2104</v>
+      </c>
+      <c r="E28">
+        <f>A88</f>
+        <v>1995</v>
+      </c>
+      <c r="F28">
+        <f>A119</f>
+        <v>2062</v>
+      </c>
+      <c r="G28">
+        <f>A150</f>
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>1604</v>
+      </c>
+      <c r="C29">
+        <f>A27</f>
+        <v>1978</v>
+      </c>
+      <c r="D29">
+        <f>A58</f>
+        <v>1415</v>
+      </c>
+      <c r="E29">
+        <f>A89</f>
+        <v>1993</v>
+      </c>
+      <c r="F29">
+        <f>A120</f>
+        <v>3167</v>
+      </c>
+      <c r="G29">
+        <f>A151</f>
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>1560</v>
+      </c>
+      <c r="C30">
+        <f>A28</f>
+        <v>1657</v>
+      </c>
+      <c r="D30">
+        <f>A59</f>
+        <v>1702</v>
+      </c>
+      <c r="E30">
+        <f>A90</f>
+        <v>1980</v>
+      </c>
+      <c r="F30">
+        <f>A121</f>
+        <v>2752</v>
+      </c>
+      <c r="G30">
+        <f>A152</f>
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>1800</v>
+      </c>
+      <c r="C31">
+        <f>A29</f>
+        <v>1604</v>
+      </c>
+      <c r="D31">
+        <f>A60</f>
+        <v>2106</v>
+      </c>
+      <c r="E31">
+        <f>A91</f>
+        <v>2072</v>
+      </c>
+      <c r="F31">
+        <f>A122</f>
+        <v>2098</v>
+      </c>
+      <c r="G31">
+        <f>A153</f>
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>1814</v>
+      </c>
+      <c r="C32">
+        <f>A30</f>
+        <v>1560</v>
+      </c>
+      <c r="D32">
+        <f>A61</f>
+        <v>1989</v>
+      </c>
+      <c r="E32">
+        <f>A92</f>
+        <v>2127</v>
+      </c>
+      <c r="F32">
+        <f>A123</f>
+        <v>1798</v>
+      </c>
+      <c r="G32">
+        <f>A154</f>
+        <v>2142</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>27917</v>
+      </c>
+      <c r="C33">
+        <f>A31</f>
+        <v>1800</v>
+      </c>
+      <c r="D33">
+        <f>A62</f>
+        <v>1976</v>
+      </c>
+      <c r="E33">
+        <f>A93</f>
+        <v>2354</v>
+      </c>
+      <c r="F33">
+        <f>A124</f>
+        <v>2638</v>
+      </c>
+      <c r="G33">
+        <f>A155</f>
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>17874</v>
+      </c>
+      <c r="C34">
+        <f>A32</f>
+        <v>1814</v>
+      </c>
+      <c r="D34">
+        <f>A63</f>
+        <v>2147</v>
+      </c>
+      <c r="E34">
+        <f>A94</f>
+        <v>2475</v>
+      </c>
+      <c r="F34">
+        <f>A125</f>
+        <v>2642</v>
+      </c>
+      <c r="G34">
+        <f>A156</f>
+        <v>2503</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>12095</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>7366</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>5247</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>2835</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>8860</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>4091</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>3009</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>2104</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>2106</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>2147</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>29601</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>19080</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>12772</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>8075</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>5734</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>3488</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>8049</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>4250</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>3098</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>2072</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>2127</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>2354</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>2475</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>29017</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>18915</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>13300</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>7623</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>5017</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>3055</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>8480</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>4434</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>2908</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>2065</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>1806</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>2062</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>3167</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>2752</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>2098</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>2638</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>2642</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>29845</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>20379</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>12676</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>8285</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>4792</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>3647</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>10083</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>4771</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>3503</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>2646</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>2838</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>2142</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>2503</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Results.xlsx
+++ b/Results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Go_Back_N" sheetId="2" r:id="rId1"/>
@@ -83,7 +83,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -95,6 +95,22 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -228,8 +244,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -244,7 +274,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="15">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="15">
@@ -10214,8 +10258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="106" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A26" zoomScale="106" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35:H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10230,13 +10274,13 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -10534,18 +10578,19 @@
         <v>18830.2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
         <v>1</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="10"/>
+      <c r="D19" t="s">
         <v>7</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B21" s="10" t="s">
         <v>11</v>
       </c>
@@ -10568,7 +10613,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B22" s="10">
         <v>100</v>
       </c>
@@ -10592,7 +10637,7 @@
         <v>54023.199999999997</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B23" s="10">
         <v>200</v>
       </c>
@@ -10616,7 +10661,7 @@
         <v>25850.6</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B24" s="10">
         <v>300</v>
       </c>
@@ -10640,7 +10685,7 @@
         <v>19466.2</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B25" s="10">
         <v>400</v>
       </c>
@@ -10664,7 +10709,7 @@
         <v>14921</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B26" s="10">
         <v>500</v>
       </c>
@@ -10688,7 +10733,7 @@
         <v>11615.8</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B27" s="10">
         <v>600</v>
       </c>
@@ -10712,7 +10757,7 @@
         <v>9029.4</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B28" s="10">
         <v>700</v>
       </c>
@@ -10736,7 +10781,7 @@
         <v>7516.8</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B29" s="10">
         <v>800</v>
       </c>
@@ -10760,7 +10805,7 @@
         <v>6609</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B30" s="10">
         <v>900</v>
       </c>
@@ -10784,7 +10829,7 @@
         <v>6067.2</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B31" s="10">
         <v>1000</v>
       </c>
@@ -10808,18 +10853,19 @@
         <v>5169.3999999999996</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
         <v>13</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="10"/>
+      <c r="D35" t="s">
         <v>7</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B37" s="10" t="s">
         <v>0</v>
       </c>
@@ -10842,7 +10888,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B38" s="10">
         <v>0.01</v>
       </c>
@@ -10866,7 +10912,7 @@
         <v>2971</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B39" s="10">
         <v>0.02</v>
       </c>
@@ -10890,7 +10936,7 @@
         <v>5044.3999999999996</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B40" s="10">
         <v>0.03</v>
       </c>
@@ -10914,7 +10960,7 @@
         <v>6906.8</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B41" s="10">
         <v>0.04</v>
       </c>
@@ -10938,7 +10984,7 @@
         <v>8634.7999999999993</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B42" s="10">
         <v>0.05</v>
       </c>
@@ -10962,7 +11008,7 @@
         <v>10785</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B43" s="10">
         <v>0.06</v>
       </c>
@@ -10986,7 +11032,7 @@
         <v>12986.2</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B44" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -11010,7 +11056,7 @@
         <v>16070.4</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B45" s="10">
         <v>0.08</v>
       </c>
@@ -11034,7 +11080,7 @@
         <v>19135.599999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B46" s="10">
         <v>0.09</v>
       </c>
@@ -11058,7 +11104,7 @@
         <v>21193</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B47" s="10">
         <v>0.1</v>
       </c>
@@ -11097,8 +11143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView zoomScale="106" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38:G47"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="106" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35:H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11112,13 +11158,13 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -11416,18 +11462,18 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
         <v>1</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>7</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B21" s="10" t="s">
         <v>11</v>
       </c>
@@ -11450,7 +11496,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B22" s="10">
         <v>100</v>
       </c>
@@ -11474,7 +11520,7 @@
         <v>8800.4</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B23" s="10">
         <v>200</v>
       </c>
@@ -11498,7 +11544,7 @@
         <v>4214.8</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B24" s="10">
         <v>300</v>
       </c>
@@ -11522,7 +11568,7 @@
         <v>3070.8</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B25" s="10">
         <v>400</v>
       </c>
@@ -11546,7 +11592,7 @@
         <v>2332.4</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B26" s="10">
         <v>500</v>
       </c>
@@ -11570,7 +11616,7 @@
         <v>2082</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B27" s="10">
         <v>600</v>
       </c>
@@ -11594,7 +11640,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B28" s="10">
         <v>700</v>
       </c>
@@ -11618,7 +11664,7 @@
         <v>1409.6</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B29" s="10">
         <v>800</v>
       </c>
@@ -11642,7 +11688,7 @@
         <v>1327.4</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B30" s="10">
         <v>900</v>
       </c>
@@ -11666,7 +11712,7 @@
         <v>969.8</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B31" s="10">
         <v>1000</v>
       </c>
@@ -11690,18 +11736,18 @@
         <v>816.8</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
         <v>13</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>7</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B37" s="10" t="s">
         <v>0</v>
       </c>
@@ -11724,7 +11770,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B38" s="10">
         <v>0.01</v>
       </c>
@@ -11748,7 +11794,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B39" s="10">
         <v>0.02</v>
       </c>
@@ -11772,7 +11818,7 @@
         <v>1084.4000000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B40" s="10">
         <v>0.03</v>
       </c>
@@ -11796,7 +11842,7 @@
         <v>1547.8</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B41" s="10">
         <v>0.04</v>
       </c>
@@ -11820,7 +11866,7 @@
         <v>1874.4</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B42" s="10">
         <v>0.05</v>
       </c>
@@ -11844,7 +11890,7 @@
         <v>2060.6</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B43" s="10">
         <v>0.06</v>
       </c>
@@ -11868,7 +11914,7 @@
         <v>1958.8</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B44" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -11892,7 +11938,7 @@
         <v>2036</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B45" s="10">
         <v>0.08</v>
       </c>
@@ -11916,7 +11962,7 @@
         <v>1923.2</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B46" s="10">
         <v>0.09</v>
       </c>
@@ -11940,7 +11986,7 @@
         <v>2197.6</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B47" s="10">
         <v>0.1</v>
       </c>
@@ -11981,7 +12027,7 @@
   <dimension ref="A1:G156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11993,1397 +12039,1397 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>27164</v>
+        <v>27543</v>
       </c>
       <c r="C2">
         <f>A2</f>
-        <v>27164</v>
+        <v>27543</v>
       </c>
       <c r="D2">
         <f>A33</f>
-        <v>27917</v>
+        <v>27158</v>
       </c>
       <c r="E2">
         <f>A64</f>
-        <v>29601</v>
+        <v>28375</v>
       </c>
       <c r="F2">
         <f>A95</f>
-        <v>29017</v>
+        <v>27452</v>
       </c>
       <c r="G2">
         <f>A126</f>
-        <v>29845</v>
+        <v>27729</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>19408</v>
+        <v>18732</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C12" si="0">A3</f>
-        <v>19408</v>
+        <v>18732</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D12" si="1">A34</f>
-        <v>17874</v>
+        <v>22007</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E12" si="2">A65</f>
-        <v>19080</v>
+        <v>21255</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F12" si="3">A96</f>
-        <v>18915</v>
+        <v>19170</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G12" si="4">A127</f>
-        <v>20379</v>
+        <v>23193</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>13143</v>
+        <v>15007</v>
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
-        <v>13143</v>
+        <v>15007</v>
       </c>
       <c r="D4">
         <f t="shared" si="1"/>
-        <v>12095</v>
+        <v>16911</v>
       </c>
       <c r="E4">
         <f t="shared" si="2"/>
-        <v>12772</v>
+        <v>15134</v>
       </c>
       <c r="F4">
         <f t="shared" si="3"/>
-        <v>13300</v>
+        <v>14969</v>
       </c>
       <c r="G4">
         <f t="shared" si="4"/>
-        <v>12676</v>
+        <v>19555</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>9070</v>
+        <v>12047</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>9070</v>
+        <v>12047</v>
       </c>
       <c r="D5">
         <f t="shared" si="1"/>
-        <v>7366</v>
+        <v>12397</v>
       </c>
       <c r="E5">
         <f t="shared" si="2"/>
-        <v>8075</v>
+        <v>12291</v>
       </c>
       <c r="F5">
         <f t="shared" si="3"/>
-        <v>7623</v>
+        <v>12197</v>
       </c>
       <c r="G5">
         <f t="shared" si="4"/>
-        <v>8285</v>
+        <v>13908</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>5369</v>
+        <v>11278</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>5369</v>
+        <v>11278</v>
       </c>
       <c r="D6">
         <f t="shared" si="1"/>
-        <v>5247</v>
+        <v>12726</v>
       </c>
       <c r="E6">
         <f t="shared" si="2"/>
-        <v>5734</v>
+        <v>12168</v>
       </c>
       <c r="F6">
         <f t="shared" si="3"/>
-        <v>5017</v>
+        <v>9806</v>
       </c>
       <c r="G6">
         <f t="shared" si="4"/>
-        <v>4792</v>
+        <v>11237</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>3108</v>
+        <v>9780</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>3108</v>
+        <v>9780</v>
       </c>
       <c r="D7">
         <f t="shared" si="1"/>
-        <v>2835</v>
+        <v>12111</v>
       </c>
       <c r="E7">
         <f t="shared" si="2"/>
-        <v>3488</v>
+        <v>11133</v>
       </c>
       <c r="F7">
         <f t="shared" si="3"/>
-        <v>3055</v>
+        <v>11211</v>
       </c>
       <c r="G7">
         <f t="shared" si="4"/>
-        <v>3647</v>
+        <v>11239</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>1635</v>
+        <v>11274</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>1635</v>
+        <v>11274</v>
       </c>
       <c r="D8">
         <f t="shared" si="1"/>
-        <v>1495</v>
+        <v>13108</v>
       </c>
       <c r="E8">
         <f t="shared" si="2"/>
-        <v>1492</v>
+        <v>10253</v>
       </c>
       <c r="F8">
         <f t="shared" si="3"/>
-        <v>1479</v>
+        <v>10166</v>
       </c>
       <c r="G8">
         <f t="shared" si="4"/>
-        <v>2017</v>
+        <v>9629</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>913</v>
+        <v>11399</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>913</v>
+        <v>11399</v>
       </c>
       <c r="D9">
         <f t="shared" si="1"/>
-        <v>905</v>
+        <v>11846</v>
       </c>
       <c r="E9">
         <f t="shared" si="2"/>
-        <v>1367</v>
+        <v>10658</v>
       </c>
       <c r="F9">
         <f t="shared" si="3"/>
-        <v>1086</v>
+        <v>11665</v>
       </c>
       <c r="G9">
         <f t="shared" si="4"/>
-        <v>1621</v>
+        <v>10588</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>834</v>
+        <v>14536</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>834</v>
+        <v>14536</v>
       </c>
       <c r="D10">
         <f t="shared" si="1"/>
-        <v>899</v>
+        <v>13546</v>
       </c>
       <c r="E10">
         <f t="shared" si="2"/>
-        <v>955</v>
+        <v>15024</v>
       </c>
       <c r="F10">
         <f t="shared" si="3"/>
-        <v>884</v>
+        <v>13017</v>
       </c>
       <c r="G10">
         <f t="shared" si="4"/>
-        <v>1035</v>
+        <v>16429</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>1121</v>
+        <v>20866</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>1121</v>
+        <v>20866</v>
       </c>
       <c r="D11">
         <f t="shared" si="1"/>
-        <v>915</v>
+        <v>17328</v>
       </c>
       <c r="E11">
         <f t="shared" si="2"/>
-        <v>1026</v>
+        <v>18365</v>
       </c>
       <c r="F11">
         <f t="shared" si="3"/>
-        <v>880</v>
+        <v>21133</v>
       </c>
       <c r="G11">
         <f t="shared" si="4"/>
-        <v>1021</v>
+        <v>17064</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>1077</v>
+        <v>28923</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>1077</v>
+        <v>28923</v>
       </c>
       <c r="D12">
         <f t="shared" si="1"/>
-        <v>1033</v>
+        <v>29444</v>
       </c>
       <c r="E12">
         <f t="shared" si="2"/>
-        <v>1042</v>
+        <v>25767</v>
       </c>
       <c r="F12">
         <f t="shared" si="3"/>
-        <v>1240</v>
+        <v>28986</v>
       </c>
       <c r="G12">
         <f t="shared" si="4"/>
-        <v>973</v>
+        <v>30434</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>8530</v>
+        <v>50127</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>3528</v>
+        <v>25013</v>
       </c>
       <c r="C14">
         <f t="shared" ref="C14:C23" si="5">A13</f>
-        <v>8530</v>
+        <v>50127</v>
       </c>
       <c r="D14">
         <f t="shared" ref="D14:D23" si="6">A44</f>
-        <v>8860</v>
+        <v>56792</v>
       </c>
       <c r="E14">
         <f t="shared" ref="E14:E23" si="7">A75</f>
-        <v>8049</v>
+        <v>52688</v>
       </c>
       <c r="F14">
         <f t="shared" ref="F14:F23" si="8">A106</f>
-        <v>8480</v>
+        <v>53425</v>
       </c>
       <c r="G14">
         <f t="shared" ref="G14:G23" si="9">A137</f>
-        <v>10083</v>
+        <v>47572</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>2836</v>
+        <v>18122</v>
       </c>
       <c r="C15">
         <f t="shared" si="5"/>
-        <v>3528</v>
+        <v>25013</v>
       </c>
       <c r="D15">
         <f t="shared" si="6"/>
-        <v>4091</v>
+        <v>25262</v>
       </c>
       <c r="E15">
         <f t="shared" si="7"/>
-        <v>4250</v>
+        <v>26234</v>
       </c>
       <c r="F15">
         <f t="shared" si="8"/>
-        <v>4434</v>
+        <v>27881</v>
       </c>
       <c r="G15">
         <f t="shared" si="9"/>
-        <v>4771</v>
+        <v>26374</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>1996</v>
+        <v>13526</v>
       </c>
       <c r="C16">
         <f t="shared" si="5"/>
-        <v>2836</v>
+        <v>18122</v>
       </c>
       <c r="D16">
         <f t="shared" si="6"/>
-        <v>3009</v>
+        <v>17378</v>
       </c>
       <c r="E16">
         <f t="shared" si="7"/>
-        <v>3098</v>
+        <v>17315</v>
       </c>
       <c r="F16">
         <f t="shared" si="8"/>
-        <v>2908</v>
+        <v>18521</v>
       </c>
       <c r="G16">
         <f t="shared" si="9"/>
-        <v>3503</v>
+        <v>17493</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>1736</v>
+        <v>8578</v>
       </c>
       <c r="C17">
         <f t="shared" si="5"/>
-        <v>1996</v>
+        <v>13526</v>
       </c>
       <c r="D17">
         <f t="shared" si="6"/>
-        <v>1954</v>
+        <v>12885</v>
       </c>
       <c r="E17">
         <f t="shared" si="7"/>
-        <v>3001</v>
+        <v>14515</v>
       </c>
       <c r="F17">
         <f t="shared" si="8"/>
-        <v>2065</v>
+        <v>12867</v>
       </c>
       <c r="G17">
         <f t="shared" si="9"/>
-        <v>2646</v>
+        <v>13775</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>1603</v>
+        <v>10452</v>
       </c>
       <c r="C18">
         <f t="shared" si="5"/>
-        <v>1736</v>
+        <v>8578</v>
       </c>
       <c r="D18">
         <f t="shared" si="6"/>
-        <v>2020</v>
+        <v>11948</v>
       </c>
       <c r="E18">
         <f t="shared" si="7"/>
-        <v>2010</v>
+        <v>10788</v>
       </c>
       <c r="F18">
         <f t="shared" si="8"/>
-        <v>1806</v>
+        <v>8625</v>
       </c>
       <c r="G18">
         <f t="shared" si="9"/>
-        <v>2838</v>
+        <v>11837</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>1560</v>
+        <v>8630</v>
       </c>
       <c r="C19">
         <f t="shared" si="5"/>
-        <v>1603</v>
+        <v>10452</v>
       </c>
       <c r="D19">
         <f t="shared" si="6"/>
-        <v>1347</v>
+        <v>8243</v>
       </c>
       <c r="E19">
         <f t="shared" si="7"/>
-        <v>1600</v>
+        <v>8992</v>
       </c>
       <c r="F19">
         <f t="shared" si="8"/>
-        <v>1097</v>
+        <v>9670</v>
       </c>
       <c r="G19">
         <f t="shared" si="9"/>
-        <v>1313</v>
+        <v>8547</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>1261</v>
+        <v>6517</v>
       </c>
       <c r="C20">
         <f t="shared" si="5"/>
-        <v>1560</v>
+        <v>8630</v>
       </c>
       <c r="D20">
         <f t="shared" si="6"/>
-        <v>1192</v>
+        <v>7411</v>
       </c>
       <c r="E20">
         <f t="shared" si="7"/>
-        <v>1766</v>
+        <v>8410</v>
       </c>
       <c r="F20">
         <f t="shared" si="8"/>
-        <v>1272</v>
+        <v>6196</v>
       </c>
       <c r="G20">
         <f t="shared" si="9"/>
-        <v>1258</v>
+        <v>9686</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>813</v>
+        <v>5686</v>
       </c>
       <c r="C21">
         <f t="shared" si="5"/>
-        <v>1261</v>
+        <v>6517</v>
       </c>
       <c r="D21">
         <f t="shared" si="6"/>
-        <v>1272</v>
+        <v>7579</v>
       </c>
       <c r="E21">
         <f t="shared" si="7"/>
-        <v>1536</v>
+        <v>6670</v>
       </c>
       <c r="F21">
         <f t="shared" si="8"/>
-        <v>1387</v>
+        <v>5918</v>
       </c>
       <c r="G21">
         <f t="shared" si="9"/>
-        <v>1181</v>
+        <v>5296</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>673</v>
+        <v>4830</v>
       </c>
       <c r="C22">
         <f t="shared" si="5"/>
-        <v>813</v>
+        <v>5686</v>
       </c>
       <c r="D22">
         <f t="shared" si="6"/>
-        <v>1092</v>
+        <v>7030</v>
       </c>
       <c r="E22">
         <f t="shared" si="7"/>
-        <v>1090</v>
+        <v>5249</v>
       </c>
       <c r="F22">
         <f t="shared" si="8"/>
-        <v>942</v>
+        <v>5830</v>
       </c>
       <c r="G22">
         <f t="shared" si="9"/>
-        <v>912</v>
+        <v>5451</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>726</v>
+        <v>2333</v>
       </c>
       <c r="C23">
         <f t="shared" si="5"/>
-        <v>673</v>
+        <v>4830</v>
       </c>
       <c r="D23">
         <f t="shared" si="6"/>
-        <v>751</v>
+        <v>5804</v>
       </c>
       <c r="E23">
         <f t="shared" si="7"/>
-        <v>847</v>
+        <v>5697</v>
       </c>
       <c r="F23">
         <f t="shared" si="8"/>
-        <v>784</v>
+        <v>4434</v>
       </c>
       <c r="G23">
         <f t="shared" si="9"/>
-        <v>1029</v>
+        <v>6325</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>1020</v>
+        <v>4007</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>1754</v>
+        <v>6454</v>
       </c>
       <c r="C25">
         <f>A23</f>
-        <v>726</v>
+        <v>2333</v>
       </c>
       <c r="D25">
         <f>A54</f>
-        <v>954</v>
+        <v>2486</v>
       </c>
       <c r="E25">
         <f>A85</f>
-        <v>892</v>
+        <v>2634</v>
       </c>
       <c r="F25">
         <f>A116</f>
-        <v>743</v>
+        <v>2591</v>
       </c>
       <c r="G25">
         <f>A147</f>
-        <v>785</v>
+        <v>2753</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>1763</v>
+        <v>8491</v>
       </c>
       <c r="C26">
         <f>A24</f>
-        <v>1020</v>
+        <v>4007</v>
       </c>
       <c r="D26">
         <f>A55</f>
-        <v>1006</v>
+        <v>4514</v>
       </c>
       <c r="E26">
         <f>A86</f>
-        <v>1312</v>
+        <v>3930</v>
       </c>
       <c r="F26">
         <f>A117</f>
-        <v>998</v>
+        <v>4765</v>
       </c>
       <c r="G26">
         <f>A148</f>
-        <v>1086</v>
+        <v>4151</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>1978</v>
+        <v>10973</v>
       </c>
       <c r="C27">
         <f>A25</f>
-        <v>1754</v>
+        <v>6454</v>
       </c>
       <c r="D27">
         <f>A56</f>
-        <v>1760</v>
+        <v>6085</v>
       </c>
       <c r="E27">
         <f>A87</f>
-        <v>1374</v>
+        <v>6173</v>
       </c>
       <c r="F27">
         <f>A118</f>
-        <v>1757</v>
+        <v>6004</v>
       </c>
       <c r="G27">
         <f>A149</f>
-        <v>1094</v>
+        <v>6586</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>1657</v>
+        <v>14556</v>
       </c>
       <c r="C28">
         <f>A26</f>
-        <v>1763</v>
+        <v>8491</v>
       </c>
       <c r="D28">
         <f>A57</f>
-        <v>2104</v>
+        <v>8625</v>
       </c>
       <c r="E28">
         <f>A88</f>
-        <v>1995</v>
+        <v>8466</v>
       </c>
       <c r="F28">
         <f>A119</f>
-        <v>2062</v>
+        <v>9748</v>
       </c>
       <c r="G28">
         <f>A150</f>
-        <v>1448</v>
+        <v>7595</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>1604</v>
+        <v>15639</v>
       </c>
       <c r="C29">
         <f>A27</f>
-        <v>1978</v>
+        <v>10973</v>
       </c>
       <c r="D29">
         <f>A58</f>
-        <v>1415</v>
+        <v>9181</v>
       </c>
       <c r="E29">
         <f>A89</f>
-        <v>1993</v>
+        <v>9774</v>
       </c>
       <c r="F29">
         <f>A120</f>
-        <v>3167</v>
+        <v>10110</v>
       </c>
       <c r="G29">
         <f>A151</f>
-        <v>1750</v>
+        <v>10043</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>1560</v>
+        <v>17753</v>
       </c>
       <c r="C30">
         <f>A28</f>
-        <v>1657</v>
+        <v>14556</v>
       </c>
       <c r="D30">
         <f>A59</f>
-        <v>1702</v>
+        <v>11192</v>
       </c>
       <c r="E30">
         <f>A90</f>
-        <v>1980</v>
+        <v>15162</v>
       </c>
       <c r="F30">
         <f>A121</f>
-        <v>2752</v>
+        <v>13287</v>
       </c>
       <c r="G30">
         <f>A152</f>
-        <v>1703</v>
+        <v>11734</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>1800</v>
+        <v>18282</v>
       </c>
       <c r="C31">
         <f>A29</f>
-        <v>1604</v>
+        <v>15639</v>
       </c>
       <c r="D31">
         <f>A60</f>
-        <v>2106</v>
+        <v>14493</v>
       </c>
       <c r="E31">
         <f>A91</f>
-        <v>2072</v>
+        <v>14119</v>
       </c>
       <c r="F31">
         <f>A122</f>
-        <v>2098</v>
+        <v>15429</v>
       </c>
       <c r="G31">
         <f>A153</f>
-        <v>2300</v>
+        <v>14537</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>1814</v>
+        <v>21170</v>
       </c>
       <c r="C32">
         <f>A30</f>
-        <v>1560</v>
+        <v>17753</v>
       </c>
       <c r="D32">
         <f>A61</f>
-        <v>1989</v>
+        <v>15196</v>
       </c>
       <c r="E32">
         <f>A92</f>
-        <v>2127</v>
+        <v>16495</v>
       </c>
       <c r="F32">
         <f>A123</f>
-        <v>1798</v>
+        <v>15653</v>
       </c>
       <c r="G32">
         <f>A154</f>
-        <v>2142</v>
+        <v>16482</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>27917</v>
+        <v>27158</v>
       </c>
       <c r="C33">
         <f>A31</f>
-        <v>1800</v>
+        <v>18282</v>
       </c>
       <c r="D33">
         <f>A62</f>
-        <v>1976</v>
+        <v>19402</v>
       </c>
       <c r="E33">
         <f>A93</f>
-        <v>2354</v>
+        <v>19387</v>
       </c>
       <c r="F33">
         <f>A124</f>
-        <v>2638</v>
+        <v>17879</v>
       </c>
       <c r="G33">
         <f>A155</f>
-        <v>2220</v>
+        <v>19991</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>17874</v>
+        <v>22007</v>
       </c>
       <c r="C34">
         <f>A32</f>
-        <v>1814</v>
+        <v>21170</v>
       </c>
       <c r="D34">
         <f>A63</f>
-        <v>2147</v>
+        <v>19494</v>
       </c>
       <c r="E34">
         <f>A94</f>
-        <v>2475</v>
+        <v>20696</v>
       </c>
       <c r="F34">
         <f>A125</f>
-        <v>2642</v>
+        <v>18885</v>
       </c>
       <c r="G34">
         <f>A156</f>
-        <v>2503</v>
+        <v>22467</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>12095</v>
+        <v>16911</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>7366</v>
+        <v>12397</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>5247</v>
+        <v>12726</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>2835</v>
+        <v>12111</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>1495</v>
+        <v>13108</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>905</v>
+        <v>11846</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>899</v>
+        <v>13546</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>915</v>
+        <v>17328</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>1033</v>
+        <v>29444</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>8860</v>
+        <v>56792</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>4091</v>
+        <v>25262</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>3009</v>
+        <v>17378</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>1954</v>
+        <v>12885</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>2020</v>
+        <v>11948</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>1347</v>
+        <v>8243</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>1192</v>
+        <v>7411</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>1272</v>
+        <v>7579</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>1092</v>
+        <v>7030</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>751</v>
+        <v>5804</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>954</v>
+        <v>2486</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>1006</v>
+        <v>4514</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>1760</v>
+        <v>6085</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>2104</v>
+        <v>8625</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>1415</v>
+        <v>9181</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>1702</v>
+        <v>11192</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>2106</v>
+        <v>14493</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>1989</v>
+        <v>15196</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>1976</v>
+        <v>19402</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>2147</v>
+        <v>19494</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>29601</v>
+        <v>28375</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>19080</v>
+        <v>21255</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>12772</v>
+        <v>15134</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>8075</v>
+        <v>12291</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>5734</v>
+        <v>12168</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>3488</v>
+        <v>11133</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>1492</v>
+        <v>10253</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>1367</v>
+        <v>10658</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>955</v>
+        <v>15024</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>1026</v>
+        <v>18365</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>1042</v>
+        <v>25767</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>8049</v>
+        <v>52688</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>4250</v>
+        <v>26234</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>3098</v>
+        <v>17315</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>3001</v>
+        <v>14515</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>2010</v>
+        <v>10788</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>1600</v>
+        <v>8992</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>1766</v>
+        <v>8410</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>1536</v>
+        <v>6670</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>1090</v>
+        <v>5249</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>847</v>
+        <v>5697</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>892</v>
+        <v>2634</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>1312</v>
+        <v>3930</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>1374</v>
+        <v>6173</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>1995</v>
+        <v>8466</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>1993</v>
+        <v>9774</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>1980</v>
+        <v>15162</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>2072</v>
+        <v>14119</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>2127</v>
+        <v>16495</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>2354</v>
+        <v>19387</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>2475</v>
+        <v>20696</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>29017</v>
+        <v>27452</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>18915</v>
+        <v>19170</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>13300</v>
+        <v>14969</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>7623</v>
+        <v>12197</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>5017</v>
+        <v>9806</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>3055</v>
+        <v>11211</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>1479</v>
+        <v>10166</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102">
-        <v>1086</v>
+        <v>11665</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103">
-        <v>884</v>
+        <v>13017</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104">
-        <v>880</v>
+        <v>21133</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105">
-        <v>1240</v>
+        <v>28986</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106">
-        <v>8480</v>
+        <v>53425</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107">
-        <v>4434</v>
+        <v>27881</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108">
-        <v>2908</v>
+        <v>18521</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109">
-        <v>2065</v>
+        <v>12867</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110">
-        <v>1806</v>
+        <v>8625</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111">
-        <v>1097</v>
+        <v>9670</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112">
-        <v>1272</v>
+        <v>6196</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113">
-        <v>1387</v>
+        <v>5918</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114">
-        <v>942</v>
+        <v>5830</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115">
-        <v>784</v>
+        <v>4434</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116">
-        <v>743</v>
+        <v>2591</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117">
-        <v>998</v>
+        <v>4765</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118">
-        <v>1757</v>
+        <v>6004</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119">
-        <v>2062</v>
+        <v>9748</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120">
-        <v>3167</v>
+        <v>10110</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121">
-        <v>2752</v>
+        <v>13287</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122">
-        <v>2098</v>
+        <v>15429</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123">
-        <v>1798</v>
+        <v>15653</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124">
-        <v>2638</v>
+        <v>17879</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125">
-        <v>2642</v>
+        <v>18885</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126">
-        <v>29845</v>
+        <v>27729</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127">
-        <v>20379</v>
+        <v>23193</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128">
-        <v>12676</v>
+        <v>19555</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129">
-        <v>8285</v>
+        <v>13908</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130">
-        <v>4792</v>
+        <v>11237</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131">
-        <v>3647</v>
+        <v>11239</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132">
-        <v>2017</v>
+        <v>9629</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133">
-        <v>1621</v>
+        <v>10588</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134">
-        <v>1035</v>
+        <v>16429</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135">
-        <v>1021</v>
+        <v>17064</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136">
-        <v>973</v>
+        <v>30434</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137">
-        <v>10083</v>
+        <v>47572</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138">
-        <v>4771</v>
+        <v>26374</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139">
-        <v>3503</v>
+        <v>17493</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140">
-        <v>2646</v>
+        <v>13775</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141">
-        <v>2838</v>
+        <v>11837</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142">
-        <v>1313</v>
+        <v>8547</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143">
-        <v>1258</v>
+        <v>9686</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144">
-        <v>1181</v>
+        <v>5296</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145">
-        <v>912</v>
+        <v>5451</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146">
-        <v>1029</v>
+        <v>6325</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147">
-        <v>785</v>
+        <v>2753</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148">
-        <v>1086</v>
+        <v>4151</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149">
-        <v>1094</v>
+        <v>6586</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150">
-        <v>1448</v>
+        <v>7595</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151">
-        <v>1750</v>
+        <v>10043</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152">
-        <v>1703</v>
+        <v>11734</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153">
-        <v>2300</v>
+        <v>14537</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154">
-        <v>2142</v>
+        <v>16482</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155">
-        <v>2220</v>
+        <v>19991</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156">
-        <v>2503</v>
+        <v>22467</v>
       </c>
     </row>
   </sheetData>
